--- a/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
+++ b/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\101.document\03. 프로젝트\2. 불법주정차\4. 설계 문서\1. 요구사항 정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\003.intellij\illegalParking\src\main\resources\doc\설계 문서\1. 요구사항 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A52CAD-6350-402E-8F3C-B61C7B8DA44E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5882D693-C804-4630-998E-6F0AE5BE46CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AI!$S$7:$S$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Mobile!$A$5:$T$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'관리자 페이지'!$A$5:$T$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'관리자 페이지'!$A$5:$T$21</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">AI!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Mobile!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'관리자 페이지'!$1:$6</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="230">
   <si>
     <t>"수행기관명"</t>
   </si>
@@ -495,10 +495,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>공공 주차장</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>목록</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -507,14 +503,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>구역 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>주차장 목록</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -523,22 +511,7 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>신고 접수 리스트</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>접수된 신고 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>불법 주정차 신고 정보 리스트 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>불법 주정차 사진 보기
-불법 주정차 구역 보기
-불법 주정차 시간 보기
-2회 비교 정보 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -557,11 +530,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 공공 주차장 정보 등록 
-- 엑셀 파일 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>PM
 (Personal Mobility)</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -594,14 +562,6 @@
   </si>
   <si>
     <t>PM 맵 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 불법 주정차 신고 리트스 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원관리</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -629,15 +589,7 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 공공 주차장 리스트 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 지도에서 보이지 않는 정보 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 공공 주차장 상세 정보 등록</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -651,27 +603,7 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>일반 사용자</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 접수자</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고 등록자</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 불법 주정차 신고</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- 불법 주정차 여부 판단하여 등록 </t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -686,17 +618,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>관공서 사용자</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 불법 주정차 구역 등록
-- 불법 주정차 타입 등록
-- 불법 주정차 시간 등록
-- 관리자마 등록 ( 관공서사용자 및 운영자 )</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 관공서에서 요청할 경우 정보를 바로 보내 줄수 있는 API 가 필요</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -707,29 +628,7 @@
     <t>중</t>
   </si>
   <si>
-    <t>- 일반 사용자 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- 기관 사용자 등록 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 불법 주정차 사진 보기 
-- 불법 주정차 구역을 타입정보 보기
-- 불법 주정차 구역의 시간 보기
-- 좌우 기준으로 정보 보기
-- API 구현</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>김성제 차장/곽우영 차장</t>
-  </si>
-  <si>
     <t>박용성 대리</t>
-  </si>
-  <si>
-    <t>곽우영 차장/박용성 대리</t>
   </si>
   <si>
     <t>지도</t>
@@ -1053,6 +952,196 @@
   <si>
     <t>- OCR 서버 구현
 - OCR 문자 타입 학습 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>관공서</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-ADMIN11</t>
+  </si>
+  <si>
+    <t>위치 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>관공서 추가</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관공서 추가 / 수정 / 삭제 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그룹 추가 / 수정 / 삭제 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 그룹 추가 / 삭제 
+- 그룹의 신고 건수 / 대기 건수 / 처리 건수 / 미 처리 건수 정보</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관공서 사용자 추가 / 수정</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지역 선택
+- 관공서명 등록 / 수정
+- 아이디 등록 / 수정
+- 패스워드 등록 / 수정</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 관공서 사용자 삭제 보류
+- 지역 정보 수정 및 삭제 보류 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관리 그룹 추가
+- 관리 그룹의 신고 통계 정보 표시 ( pie 챠트 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공공 주차장 정보 등록 
+- 일괄 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공공 주차장 상세 정보 등록
+- 엑셀 파일 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>공영 주차장</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공영 주차장 리스트 보기
+- 공영 주차장 정보 상세보기 
+- 공영 주차장 정보 수정</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 구역 등록
+- 불법 주정차 타입 등록
+- 불법 주정차 시간 등록
+- 관리자 등록 ( 관공서사용자 및 운영자 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 글 작성 할때 에디터를 사용 해야 한다. </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획팀</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 공지사항 리스트 보기
+- 검색 기능 
+- 필터 ( 제목 / 내용 ) </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 공지사항 리스트 보기
+- 검색 기능 
+- 필터 기능 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 목록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 분류 : 공지 / 소식</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공지사항 등록 / 수정 / 삭제</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공지 사항 등록 
+- 공지 사항 수정
+- 공지 사항 삭제</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 등록 및 접수 목록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관리자 인 경우 신고 등록 목록 보기 
+- 관리자 인 경우 신고 접수 목록 보기 
+- 기관 사용자 인 경우 신고 접수 목록 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 사진 보기
+- 불법 주정차 구역 보기
+- 불법 주정차 시간 보기
+- 2회 비교 정보 보기
+- 기관 사용자인 경우 과태료대상 / 제외 여부 등록 
+- 기관과 연계하여 정보 전달</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 사진 보기 
+- 불법 주정차 구역을 타입정보 보기
+- 불법 주정차 구역의 시간 보기
+- 2회 비교 대상 정보 보기
+- 기관 사용자의 과태료대상 / 제외 여부 등록 
+- 기관 사용자의 과태료 대상 / 제외에 대한 부연 설명 등록
+- 과태료대상 정보 요청 API 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 신고 목록 보기 
+- 신고 접수 보기 
+- 관리자 인 경우 신고 등록 보기 
+- 관리자 인 경우 신고 접수 보기
+- 기관 사용자 인 경우 구분하여 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-ADMIN12</t>
+  </si>
+  <si>
+    <t>홈</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계정보</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관 사용자의 통계 정보</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 해당 기관의 관리 그룹의 총 신고 건수
+- 해당 기관의 관리 그룹의 총 신고 처리 건수
+- 해당 기관의 관리 그룹의 총 신고 미처리 건수</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 기관 사용자 전용 화면 전환 
+- 통계 정보에 대한 
+- 필터 기능 </t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1472,7 +1561,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1665,6 +1754,30 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1677,6 +1790,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1689,15 +1811,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1731,24 +1844,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1756,6 +1851,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2145,7 +2243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -2277,55 +2375,55 @@
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="1:13" ht="17.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="1:13" ht="17.25">
       <c r="A12" s="7"/>
@@ -2343,66 +2441,66 @@
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
     </row>
     <row r="16" spans="1:13" ht="6" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
     </row>
     <row r="17" spans="1:13" ht="17.25">
       <c r="A17" s="7"/>
@@ -2420,36 +2518,36 @@
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
     </row>
     <row r="20" spans="1:13" ht="17.25">
       <c r="A20" s="7"/>
@@ -2637,70 +2735,70 @@
       <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A2" s="72" t="str">
+      <c r="A2" s="76" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A4" s="73" t="str">
+      <c r="A4" s="77" t="str">
         <f>표지!A13</f>
         <v>요구사항정의서</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1">
       <c r="A6" s="26"/>
@@ -2780,54 +2878,54 @@
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="36" t="s">
         <v>7</v>
       </c>
@@ -2839,67 +2937,67 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A14" s="69">
+      <c r="A14" s="80">
         <v>0.1</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -2908,13 +3006,13 @@
       <c r="A18" s="39"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
@@ -2923,111 +3021,94 @@
       <c r="A19" s="39"/>
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="37"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="A4:M5"/>
-    <mergeCell ref="A11:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:J20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="D24:J24"/>
     <mergeCell ref="A21:B21"/>
@@ -3036,6 +3117,23 @@
     <mergeCell ref="D22:J22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:J23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="A4:M5"/>
+    <mergeCell ref="A11:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3055,7 +3153,7 @@
   <dimension ref="A1:BL1048558"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -3085,77 +3183,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="79" t="str">
+      <c r="A1" s="87" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -3169,60 +3267,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75" t="s">
+      <c r="L5" s="83"/>
+      <c r="M5" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="75" t="s">
+      <c r="P5" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="75" t="s">
+      <c r="Q5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75" t="s" ph="1">
+      <c r="R5" s="83"/>
+      <c r="S5" s="83" t="s" ph="1">
         <v>24</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="83" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -3232,11 +3330,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -3249,16 +3347,16 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="75" ph="1"/>
-      <c r="T6" s="75"/>
+      <c r="S6" s="83" ph="1"/>
+      <c r="T6" s="83"/>
     </row>
     <row r="7" spans="1:20" ht="54" customHeight="1">
       <c r="A7" s="50">
@@ -3267,24 +3365,24 @@
       <c r="B7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="84" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="55" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="J7" s="54" t="s">
         <v>35</v>
@@ -3313,7 +3411,7 @@
       </c>
       <c r="R7" s="54"/>
       <c r="S7" s="61" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="T7" s="59"/>
     </row>
@@ -3324,22 +3422,22 @@
       <c r="B8" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="60" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="55" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="J8" s="54" t="s">
         <v>35</v>
@@ -3368,7 +3466,7 @@
       </c>
       <c r="R8" s="54"/>
       <c r="S8" s="61" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="T8" s="59"/>
     </row>
@@ -3379,22 +3477,22 @@
       <c r="B9" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="60" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="55" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>35</v>
@@ -3423,7 +3521,7 @@
       </c>
       <c r="R9" s="60"/>
       <c r="S9" s="61" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="T9" s="59"/>
     </row>
@@ -3434,22 +3532,22 @@
       <c r="B10" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="60" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="55" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="J10" s="60" t="s">
         <v>35</v>
@@ -3478,7 +3576,7 @@
       </c>
       <c r="R10" s="54"/>
       <c r="S10" s="61" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="T10" s="59"/>
     </row>
@@ -3630,6 +3728,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:R5"/>
@@ -3648,7 +3747,6 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
@@ -3688,7 +3786,7 @@
   </sheetPr>
   <dimension ref="A1:BL1048573"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -3719,77 +3817,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="79" t="str">
+      <c r="A1" s="87" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
     </row>
     <row r="2" spans="1:64" ht="18" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
     </row>
     <row r="4" spans="1:64" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -3803,60 +3901,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:64" ht="27.75" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75" t="s">
+      <c r="L5" s="83"/>
+      <c r="M5" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="75" t="s">
+      <c r="P5" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="75" t="s">
+      <c r="Q5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75" t="s">
+      <c r="R5" s="83"/>
+      <c r="S5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="83" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="42.75" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -3866,11 +3964,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -3883,44 +3981,44 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-    </row>
-    <row r="7" spans="1:64" s="90" customFormat="1" ht="54">
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+    </row>
+    <row r="7" spans="1:64" s="68" customFormat="1" ht="54">
       <c r="A7" s="50">
         <v>1</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="92" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="H7" s="91" t="s">
-        <v>188</v>
-      </c>
-      <c r="I7" s="91" t="s">
-        <v>189</v>
+      <c r="D7" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>166</v>
       </c>
       <c r="J7" s="57" t="s">
         <v>35</v>
@@ -3949,9 +4047,9 @@
       </c>
       <c r="R7" s="57"/>
       <c r="S7" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="T7" s="89"/>
+        <v>167</v>
+      </c>
+      <c r="T7" s="67"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
       <c r="W7" s="42"/>
@@ -3997,27 +4095,27 @@
       <c r="BK7" s="42"/>
       <c r="BL7" s="42"/>
     </row>
-    <row r="8" spans="1:64" s="90" customFormat="1" ht="54">
+    <row r="8" spans="1:64" s="68" customFormat="1" ht="54">
       <c r="A8" s="50">
         <v>2</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91" t="s">
-        <v>183</v>
+      <c r="C8" s="92"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69" t="s">
+        <v>160</v>
       </c>
       <c r="J8" s="57" t="s">
         <v>35</v>
@@ -4046,9 +4144,9 @@
       </c>
       <c r="R8" s="57"/>
       <c r="S8" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="T8" s="89"/>
+        <v>167</v>
+      </c>
+      <c r="T8" s="67"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
       <c r="W8" s="42"/>
@@ -4094,29 +4192,29 @@
       <c r="BK8" s="42"/>
       <c r="BL8" s="42"/>
     </row>
-    <row r="9" spans="1:64" s="90" customFormat="1" ht="54">
+    <row r="9" spans="1:64" s="68" customFormat="1" ht="54">
       <c r="A9" s="50">
         <v>3</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="91" t="s">
-        <v>191</v>
+      <c r="C9" s="92"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>168</v>
       </c>
       <c r="J9" s="57" t="s">
         <v>35</v>
@@ -4145,9 +4243,9 @@
       </c>
       <c r="R9" s="57"/>
       <c r="S9" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="T9" s="89"/>
+        <v>167</v>
+      </c>
+      <c r="T9" s="67"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
       <c r="W9" s="42"/>
@@ -4200,22 +4298,22 @@
       <c r="B10" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="83" t="s">
-        <v>138</v>
+      <c r="C10" s="92"/>
+      <c r="D10" s="91" t="s">
+        <v>115</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="53" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>35</v>
@@ -4244,7 +4342,7 @@
       </c>
       <c r="R10" s="51"/>
       <c r="S10" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T10" s="58"/>
     </row>
@@ -4255,20 +4353,20 @@
       <c r="B11" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="57" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="53" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="J11" s="51" t="s">
         <v>35</v>
@@ -4297,7 +4395,7 @@
       </c>
       <c r="R11" s="51"/>
       <c r="S11" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T11" s="58"/>
     </row>
@@ -4308,20 +4406,20 @@
       <c r="B12" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="57" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="53" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="J12" s="57" t="s">
         <v>35</v>
@@ -4350,7 +4448,7 @@
       </c>
       <c r="R12" s="57"/>
       <c r="S12" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T12" s="58"/>
     </row>
@@ -4361,20 +4459,20 @@
       <c r="B13" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="57" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="53" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="J13" s="51" t="s">
         <v>35</v>
@@ -4403,7 +4501,7 @@
       </c>
       <c r="R13" s="51"/>
       <c r="S13" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T13" s="58"/>
     </row>
@@ -4414,20 +4512,20 @@
       <c r="B14" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="53" t="s">
         <v>146</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>169</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="53" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="J14" s="51" t="s">
         <v>35</v>
@@ -4456,7 +4554,7 @@
       </c>
       <c r="R14" s="51"/>
       <c r="S14" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T14" s="58"/>
     </row>
@@ -4467,20 +4565,20 @@
       <c r="B15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="57" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="H15" s="62"/>
       <c r="I15" s="53" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="J15" s="57" t="s">
         <v>35</v>
@@ -4509,7 +4607,7 @@
       </c>
       <c r="R15" s="57"/>
       <c r="S15" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T15" s="58"/>
     </row>
@@ -4520,20 +4618,20 @@
       <c r="B16" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="57" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="H16" s="62"/>
       <c r="I16" s="53" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="J16" s="57" t="s">
         <v>35</v>
@@ -4562,7 +4660,7 @@
       </c>
       <c r="R16" s="57"/>
       <c r="S16" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T16" s="58"/>
     </row>
@@ -4573,20 +4671,20 @@
       <c r="B17" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="57" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="53" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="J17" s="57" t="s">
         <v>35</v>
@@ -4615,7 +4713,7 @@
       </c>
       <c r="R17" s="57"/>
       <c r="S17" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T17" s="58"/>
     </row>
@@ -4626,22 +4724,22 @@
       <c r="B18" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="83" t="s">
+      <c r="C18" s="92"/>
+      <c r="D18" s="91" t="s">
         <v>79</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="53" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="J18" s="57" t="s">
         <v>35</v>
@@ -4670,7 +4768,7 @@
       </c>
       <c r="R18" s="57"/>
       <c r="S18" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T18" s="58"/>
     </row>
@@ -4681,20 +4779,20 @@
       <c r="B19" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="57" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="53" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="J19" s="57" t="s">
         <v>35</v>
@@ -4723,7 +4821,7 @@
       </c>
       <c r="R19" s="57"/>
       <c r="S19" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T19" s="58"/>
     </row>
@@ -4734,22 +4832,22 @@
       <c r="B20" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="83" t="s">
-        <v>149</v>
+      <c r="C20" s="92"/>
+      <c r="D20" s="91" t="s">
+        <v>126</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="53" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J20" s="57" t="s">
         <v>35</v>
@@ -4778,7 +4876,7 @@
       </c>
       <c r="R20" s="57"/>
       <c r="S20" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T20" s="58"/>
     </row>
@@ -4789,20 +4887,20 @@
       <c r="B21" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="57" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="53" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="J21" s="57" t="s">
         <v>35</v>
@@ -4831,7 +4929,7 @@
       </c>
       <c r="R21" s="57"/>
       <c r="S21" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T21" s="58"/>
     </row>
@@ -4840,22 +4938,22 @@
         <v>16</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
+        <v>169</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="57" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="53" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="J22" s="57"/>
       <c r="K22" s="50"/>
@@ -4867,7 +4965,7 @@
       <c r="Q22" s="57"/>
       <c r="R22" s="57"/>
       <c r="S22" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T22" s="58"/>
     </row>
@@ -4876,22 +4974,22 @@
         <v>17</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
+        <v>170</v>
+      </c>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
       <c r="E23" s="57" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="G23" s="53" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="53" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="J23" s="57" t="s">
         <v>35</v>
@@ -4920,7 +5018,7 @@
       </c>
       <c r="R23" s="57"/>
       <c r="S23" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T23" s="58"/>
     </row>
@@ -4929,24 +5027,24 @@
         <v>18</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="84"/>
+        <v>171</v>
+      </c>
+      <c r="C24" s="92"/>
       <c r="D24" s="57" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87" t="s">
-        <v>196</v>
+        <v>141</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65" t="s">
+        <v>173</v>
       </c>
       <c r="J24" s="57" t="s">
         <v>35</v>
@@ -4975,7 +5073,7 @@
       </c>
       <c r="R24" s="57"/>
       <c r="S24" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T24" s="58"/>
     </row>
@@ -4984,24 +5082,24 @@
         <v>19</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="85"/>
+        <v>172</v>
+      </c>
+      <c r="C25" s="93"/>
       <c r="D25" s="57" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87" t="s">
-        <v>196</v>
+        <v>141</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65" t="s">
+        <v>173</v>
       </c>
       <c r="J25" s="57" t="s">
         <v>35</v>
@@ -5030,7 +5128,7 @@
       </c>
       <c r="R25" s="57"/>
       <c r="S25" s="57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="T25" s="58"/>
     </row>
@@ -5182,13 +5280,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C7:C25"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D23"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -5205,6 +5296,13 @@
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C7:C25"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D23"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
@@ -5242,10 +5340,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL1048564"/>
+  <dimension ref="A1:BL1048569"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -5275,77 +5373,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="79" t="str">
+      <c r="A1" s="87" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
+      <c r="A3" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -5359,60 +5457,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75" t="s">
+      <c r="L5" s="83"/>
+      <c r="M5" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="75" t="s">
+      <c r="P5" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="75" t="s">
+      <c r="Q5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75" t="s">
+      <c r="R5" s="83"/>
+      <c r="S5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="83" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="63" t="s">
         <v>26</v>
       </c>
@@ -5422,11 +5520,11 @@
       <c r="E6" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -5439,215 +5537,211 @@
       <c r="N6" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-    </row>
-    <row r="7" spans="1:20" ht="150" customHeight="1">
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+    </row>
+    <row r="7" spans="1:20" ht="42.75" customHeight="1">
       <c r="A7" s="50">
         <v>1</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>92</v>
+      <c r="C7" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>110</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="H7" s="53"/>
       <c r="I7" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="J7" s="64" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="L7" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="57" t="str">
+      <c r="M7" s="64" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N7" s="57" t="s">
+      <c r="N7" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="57" t="s">
+      <c r="O7" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57" t="s">
-        <v>135</v>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64" t="s">
+        <v>52</v>
       </c>
       <c r="T7" s="58"/>
     </row>
-    <row r="8" spans="1:20" ht="75" customHeight="1">
+    <row r="8" spans="1:20" ht="42.75" customHeight="1">
       <c r="A8" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>93</v>
+        <v>69</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71" t="s">
+        <v>214</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="71" t="s">
         <v>35</v>
       </c>
       <c r="K8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="L8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="57" t="str">
+      <c r="M8" s="71" t="str">
+        <f>표지!A11</f>
+        <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
+      </c>
+      <c r="N8" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="58"/>
+    </row>
+    <row r="9" spans="1:20" ht="42.75" customHeight="1">
+      <c r="A9" s="50">
+        <v>2</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="64" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N8" s="57" t="s">
+      <c r="N9" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="57" t="s">
+      <c r="O9" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="T8" s="58"/>
-    </row>
-    <row r="9" spans="1:20" ht="54" customHeight="1">
-      <c r="A9" s="50">
+      <c r="R9" s="64"/>
+      <c r="S9" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="58"/>
+    </row>
+    <row r="10" spans="1:20" ht="150" customHeight="1">
+      <c r="A10" s="50">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B10" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="57" t="str">
-        <f>표지!A10</f>
-        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
-      </c>
-      <c r="N9" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="T9" s="58"/>
-    </row>
-    <row r="10" spans="1:20" ht="60" customHeight="1">
-      <c r="A10" s="50">
-        <v>4</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="97" t="s">
+        <v>79</v>
+      </c>
       <c r="D10" s="57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="J10" s="57" t="s">
         <v>35</v>
@@ -5663,7 +5757,7 @@
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
       <c r="N10" s="57" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="O10" s="57" t="s">
         <v>39</v>
@@ -5676,35 +5770,35 @@
       </c>
       <c r="R10" s="57"/>
       <c r="S10" s="57" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="T10" s="58"/>
     </row>
-    <row r="11" spans="1:20" ht="54" customHeight="1">
+    <row r="11" spans="1:20" ht="105" customHeight="1">
       <c r="A11" s="50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>85</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C11" s="97"/>
       <c r="D11" s="57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="57" t="s">
-        <v>104</v>
-      </c>
       <c r="G11" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="53"/>
+        <v>221</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>111</v>
+      </c>
       <c r="I11" s="53" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="J11" s="57" t="s">
         <v>35</v>
@@ -5723,159 +5817,155 @@
         <v>38</v>
       </c>
       <c r="O11" s="57" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="P11" s="57" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R11" s="57"/>
-      <c r="S11" s="57" t="s">
+      <c r="S11" s="64" t="s">
         <v>52</v>
       </c>
       <c r="T11" s="58"/>
     </row>
-    <row r="12" spans="1:20" ht="54" customHeight="1">
+    <row r="12" spans="1:20" ht="54">
       <c r="A12" s="50">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>105</v>
+        <v>193</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>196</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="87" t="s">
-        <v>115</v>
+        <v>199</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>201</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="J12" s="64" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="L12" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="57" t="str">
-        <f>표지!A10</f>
-        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
-      </c>
-      <c r="N12" s="57" t="s">
+      <c r="M12" s="64">
+        <f>표지!A3</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="P12" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q12" s="57" t="s">
+      <c r="O12" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57" t="s">
-        <v>137</v>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64" t="s">
+        <v>52</v>
       </c>
       <c r="T12" s="58"/>
     </row>
-    <row r="13" spans="1:20" ht="54" customHeight="1">
+    <row r="13" spans="1:20" ht="51.75" customHeight="1">
       <c r="A13" s="50">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>106</v>
+        <v>224</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="64" t="s">
+        <v>197</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="87"/>
+        <v>198</v>
+      </c>
+      <c r="H13" s="53"/>
       <c r="I13" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="64" t="s">
         <v>35</v>
       </c>
       <c r="K13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="57" t="str">
-        <f>표지!A10</f>
-        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
-      </c>
-      <c r="N13" s="57" t="s">
+      <c r="M13" s="64">
+        <f>표지!A2</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="P13" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q13" s="57" t="s">
+      <c r="O13" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57" t="s">
+      <c r="R13" s="64"/>
+      <c r="S13" s="64" t="s">
         <v>52</v>
       </c>
       <c r="T13" s="58"/>
     </row>
     <row r="14" spans="1:20" ht="54" customHeight="1">
       <c r="A14" s="50">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>100</v>
+        <v>73</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>82</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>118</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H14" s="53"/>
       <c r="I14" s="53" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J14" s="57" t="s">
         <v>35</v>
@@ -5894,45 +5984,43 @@
         <v>38</v>
       </c>
       <c r="O14" s="57" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="P14" s="57" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R14" s="57"/>
-      <c r="S14" s="57" t="s">
-        <v>52</v>
+      <c r="S14" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="T14" s="58"/>
     </row>
-    <row r="15" spans="1:20" ht="54" customHeight="1">
+    <row r="15" spans="1:20" ht="60" customHeight="1">
       <c r="A15" s="50">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="53" t="s">
         <v>109</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53" t="s">
-        <v>132</v>
       </c>
       <c r="J15" s="57" t="s">
         <v>35</v>
@@ -5960,32 +6048,36 @@
         <v>40</v>
       </c>
       <c r="R15" s="57"/>
-      <c r="S15" s="57" t="s">
-        <v>135</v>
+      <c r="S15" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="T15" s="58"/>
     </row>
     <row r="16" spans="1:20" ht="54" customHeight="1">
       <c r="A16" s="50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="85"/>
+        <v>75</v>
+      </c>
+      <c r="C16" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="E16" s="57" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="H16" s="53"/>
       <c r="I16" s="53" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="J16" s="57" t="s">
         <v>35</v>
@@ -6004,39 +6096,305 @@
         <v>38</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="P16" s="57" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R16" s="57"/>
-      <c r="S16" s="57" t="s">
-        <v>135</v>
+      <c r="S16" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="T16" s="58"/>
     </row>
-    <row r="1048517" spans="12:12">
-      <c r="L1048517" s="57" t="s">
+    <row r="17" spans="1:20" ht="54" customHeight="1">
+      <c r="A17" s="50">
+        <v>8</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="57" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="1048518" spans="12:12">
-      <c r="L1048518" s="57"/>
-    </row>
-    <row r="1048519" spans="12:12">
-      <c r="L1048519" s="57"/>
-    </row>
-    <row r="1048520" spans="12:12">
-      <c r="L1048520" s="57"/>
-    </row>
-    <row r="1048521" spans="12:12">
-      <c r="L1048521" s="57"/>
+      <c r="M17" s="57" t="str">
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
+      </c>
+      <c r="N17" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="57"/>
+      <c r="S17" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="58"/>
+    </row>
+    <row r="18" spans="1:20" ht="54" customHeight="1">
+      <c r="A18" s="50">
+        <v>9</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="97"/>
+      <c r="D18" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="65"/>
+      <c r="I18" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="57" t="str">
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
+      </c>
+      <c r="N18" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="57"/>
+      <c r="S18" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="T18" s="58"/>
+    </row>
+    <row r="19" spans="1:20" ht="54" customHeight="1">
+      <c r="A19" s="50">
+        <v>10</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="57" t="str">
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
+      </c>
+      <c r="N19" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="57"/>
+      <c r="S19" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="T19" s="58"/>
+    </row>
+    <row r="20" spans="1:20" ht="54" customHeight="1">
+      <c r="A20" s="50">
+        <v>11</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="64" t="str">
+        <f>표지!A11</f>
+        <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
+      </c>
+      <c r="N20" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" s="58"/>
+    </row>
+    <row r="21" spans="1:20" ht="54" customHeight="1">
+      <c r="A21" s="50">
+        <v>12</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="57" t="str">
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
+      </c>
+      <c r="N21" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="57"/>
+      <c r="S21" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="58"/>
     </row>
     <row r="1048522" spans="12:12">
-      <c r="L1048522" s="57"/>
+      <c r="L1048522" s="57" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="1048523" spans="12:12">
       <c r="L1048523" s="57"/>
@@ -6164,12 +6522,39 @@
     <row r="1048564" spans="12:12">
       <c r="L1048564" s="57"/>
     </row>
+    <row r="1048565" spans="12:12">
+      <c r="L1048565" s="57"/>
+    </row>
+    <row r="1048566" spans="12:12">
+      <c r="L1048566" s="57"/>
+    </row>
+    <row r="1048567" spans="12:12">
+      <c r="L1048567" s="57"/>
+    </row>
+    <row r="1048568" spans="12:12">
+      <c r="L1048568" s="57"/>
+    </row>
+    <row r="1048569" spans="12:12">
+      <c r="L1048569" s="57"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C9:C10"/>
+  <mergeCells count="28">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -6182,34 +6567,27 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="S7:S16" xr:uid="{B6D72467-DD9F-44F5-978D-F765DE88D956}">
-      <formula1>"김성제차장,곽우영 차장, 박용성 대리, 김성제 차장/곽우영 차장, 곽우영 차장/박용성 대리"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J16" xr:uid="{9BD06E7C-8EC0-4BB5-8648-303BC5890978}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J21" xr:uid="{9BD06E7C-8EC0-4BB5-8648-303BC5890978}">
       <formula1>"기능,비기능"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K16" xr:uid="{DB890959-F961-4DEC-BEA0-263CFA4C43E3}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K21" xr:uid="{DB890959-F961-4DEC-BEA0-263CFA4C43E3}">
       <formula1>"Y,N"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:P16" xr:uid="{3357D440-A28C-47C6-824A-145F7CA969B3}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:P21" xr:uid="{3357D440-A28C-47C6-824A-145F7CA969B3}">
       <formula1>"상,중,하"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q16" xr:uid="{35B433F8-ABE2-4B33-8737-15CE5BB3183B}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q21" xr:uid="{35B433F8-ABE2-4B33-8737-15CE5BB3183B}">
       <formula1>"신규,변경,보류,삭제,추가"</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="S7:S21" xr:uid="{C685DA7C-C696-48D1-8C28-D62BDFCC793D}">
+      <formula1>"박용성 대리, 곽우영 차장, 곽우영 차장/박용성 대리"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
+++ b/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\003.intellij\illegalParking\src\main\resources\doc\설계 문서\1. 요구사항 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5882D693-C804-4630-998E-6F0AE5BE46CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B0643E-3375-4285-8092-6DA22A9233DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,17 @@
     <sheet name="개정이력" sheetId="2" r:id="rId2"/>
     <sheet name="AI" sheetId="3" r:id="rId3"/>
     <sheet name="Mobile" sheetId="10" r:id="rId4"/>
-    <sheet name="관리자 페이지" sheetId="11" r:id="rId5"/>
+    <sheet name="관리자 &amp; 관공서 페이지" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AI!$S$7:$S$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Mobile!$A$5:$T$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'관리자 페이지'!$A$5:$T$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Mobile!$A$5:$T$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'관리자 &amp; 관공서 페이지'!$A$5:$T$21</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">AI!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Mobile!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'관리자 페이지'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'관리자 &amp; 관공서 페이지'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="238">
   <si>
     <t>"수행기관명"</t>
   </si>
@@ -643,10 +643,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>탄력 주정차 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>공공 주차장 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -660,10 +656,6 @@
   </si>
   <si>
     <t>현재 위치</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM(모빌리티) 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -748,11 +740,6 @@
   <si>
     <t>- 5분간 주정차 구역 보기
 - 5분간 주정차 신고 건수 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 탄력 주정차 구역 보기
-- 탄력 주정차 신고 건수 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -869,9 +856,6 @@
   </si>
   <si>
     <t>REQ-MOBILE18</t>
-  </si>
-  <si>
-    <t>REQ-MOBILE19</t>
   </si>
   <si>
     <t>- 인터넷 사용 권한
@@ -1142,6 +1126,57 @@
     <t xml:space="preserve">- 기관 사용자 전용 화면 전환 
 - 통계 정보에 대한 
 - 필터 기능 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관리자는 통계 자료 제외
+- 해당 기관의 관리 그룹에 대한 통계 자료만 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 신고 건수는 괴태료대상 건수만 해당</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM(퍼스널 모빌리티) 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽우영</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 목록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 목록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 목록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 목록 / 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 포인트 제공 및 포인트 사용 정보 목록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 포인트 제공 목록
+- 포인트 사용 목록 ( 상품 구매 목록 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 상품 등록 
+- 상품 목록</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1561,7 +1596,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1778,6 +1813,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1855,6 +1896,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2244,7 +2288,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="M27" sqref="A1:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -2375,55 +2419,55 @@
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
     </row>
     <row r="11" spans="1:13" ht="17.25">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="1:13" ht="17.25">
       <c r="A12" s="7"/>
@@ -2441,66 +2485,66 @@
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" ht="6" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" spans="1:13" ht="17.25">
       <c r="A17" s="7"/>
@@ -2518,36 +2562,36 @@
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
     </row>
     <row r="20" spans="1:13" ht="17.25">
       <c r="A20" s="7"/>
@@ -2703,7 +2747,7 @@
   <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -2735,70 +2779,70 @@
       <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A2" s="76" t="str">
+      <c r="A2" s="78" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A4" s="77" t="str">
+      <c r="A4" s="79" t="str">
         <f>표지!A13</f>
         <v>요구사항정의서</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1">
       <c r="A6" s="26"/>
@@ -2878,54 +2922,54 @@
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
       <c r="K13" s="36" t="s">
         <v>7</v>
       </c>
@@ -2937,67 +2981,69 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A14" s="80">
+      <c r="A14" s="82">
         <v>0.1</v>
       </c>
-      <c r="B14" s="80"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="38"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="38" t="s">
+        <v>229</v>
+      </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -3006,13 +3052,13 @@
       <c r="A18" s="39"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
@@ -3021,88 +3067,88 @@
       <c r="A19" s="39"/>
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="37"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
@@ -3152,8 +3198,8 @@
   </sheetPr>
   <dimension ref="A1:BL1048558"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -3183,77 +3229,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="89" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -3267,60 +3313,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83" t="s">
+      <c r="L5" s="85"/>
+      <c r="M5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="83" t="s">
+      <c r="P5" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="83" t="s">
+      <c r="Q5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83" t="s" ph="1">
+      <c r="R5" s="85"/>
+      <c r="S5" s="85" t="s" ph="1">
         <v>24</v>
       </c>
-      <c r="T5" s="83" t="s">
+      <c r="T5" s="85" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -3330,11 +3376,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -3347,16 +3393,16 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="83" ph="1"/>
-      <c r="T6" s="83"/>
+      <c r="S6" s="85" ph="1"/>
+      <c r="T6" s="85"/>
     </row>
     <row r="7" spans="1:20" ht="54" customHeight="1">
       <c r="A7" s="50">
@@ -3365,24 +3411,24 @@
       <c r="B7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="86" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="55" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J7" s="54" t="s">
         <v>35</v>
@@ -3411,7 +3457,7 @@
       </c>
       <c r="R7" s="54"/>
       <c r="S7" s="61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T7" s="59"/>
     </row>
@@ -3422,22 +3468,22 @@
       <c r="B8" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="60" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="55" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J8" s="54" t="s">
         <v>35</v>
@@ -3466,7 +3512,7 @@
       </c>
       <c r="R8" s="54"/>
       <c r="S8" s="61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T8" s="59"/>
     </row>
@@ -3477,22 +3523,22 @@
       <c r="B9" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="60" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="55" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>35</v>
@@ -3521,7 +3567,7 @@
       </c>
       <c r="R9" s="60"/>
       <c r="S9" s="61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T9" s="59"/>
     </row>
@@ -3532,22 +3578,22 @@
       <c r="B10" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="60" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="55" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J10" s="60" t="s">
         <v>35</v>
@@ -3576,7 +3622,7 @@
       </c>
       <c r="R10" s="54"/>
       <c r="S10" s="61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T10" s="59"/>
     </row>
@@ -3728,8 +3774,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:S6"/>
@@ -3747,6 +3791,8 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
@@ -3784,10 +3830,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL1048573"/>
+  <dimension ref="A1:BL1048572"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -3817,77 +3863,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="89" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="1:64" ht="18" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -3901,60 +3947,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:64" ht="27.75" customHeight="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83" t="s">
+      <c r="L5" s="85"/>
+      <c r="M5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="83" t="s">
+      <c r="P5" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="83" t="s">
+      <c r="Q5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83" t="s">
+      <c r="R5" s="85"/>
+      <c r="S5" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="83" t="s">
+      <c r="T5" s="85" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="42.75" customHeight="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -3964,11 +4010,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -3981,16 +4027,16 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
     </row>
     <row r="7" spans="1:64" s="68" customFormat="1" ht="54">
       <c r="A7" s="50">
@@ -3999,26 +4045,26 @@
       <c r="B7" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="94" t="s">
-        <v>156</v>
+      <c r="D7" s="96" t="s">
+        <v>153</v>
       </c>
       <c r="E7" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="69" t="s">
         <v>163</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>166</v>
       </c>
       <c r="J7" s="57" t="s">
         <v>35</v>
@@ -4047,7 +4093,7 @@
       </c>
       <c r="R7" s="57"/>
       <c r="S7" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T7" s="67"/>
       <c r="U7" s="43"/>
@@ -4102,20 +4148,20 @@
       <c r="B8" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="95"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="66" t="s">
         <v>157</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>160</v>
       </c>
       <c r="H8" s="69"/>
       <c r="I8" s="69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J8" s="57" t="s">
         <v>35</v>
@@ -4144,7 +4190,7 @@
       </c>
       <c r="R8" s="57"/>
       <c r="S8" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T8" s="67"/>
       <c r="U8" s="43"/>
@@ -4199,22 +4245,22 @@
       <c r="B9" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="96"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="H9" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>162</v>
-      </c>
       <c r="I9" s="69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J9" s="57" t="s">
         <v>35</v>
@@ -4243,7 +4289,7 @@
       </c>
       <c r="R9" s="57"/>
       <c r="S9" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T9" s="67"/>
       <c r="U9" s="43"/>
@@ -4298,8 +4344,8 @@
       <c r="B10" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="91" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="93" t="s">
         <v>115</v>
       </c>
       <c r="E10" s="57" t="s">
@@ -4309,11 +4355,13 @@
         <v>116</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="52"/>
+        <v>140</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>227</v>
+      </c>
       <c r="I10" s="53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>35</v>
@@ -4342,7 +4390,7 @@
       </c>
       <c r="R10" s="51"/>
       <c r="S10" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T10" s="58"/>
     </row>
@@ -4353,8 +4401,8 @@
       <c r="B11" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="57" t="s">
         <v>117</v>
       </c>
@@ -4362,11 +4410,13 @@
         <v>117</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="52"/>
+        <v>141</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>227</v>
+      </c>
       <c r="I11" s="53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J11" s="51" t="s">
         <v>35</v>
@@ -4385,29 +4435,29 @@
         <v>38</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="P11" s="51" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="51" t="s">
         <v>40</v>
       </c>
       <c r="R11" s="51"/>
       <c r="S11" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T11" s="58"/>
     </row>
     <row r="12" spans="1:64" ht="54">
       <c r="A12" s="50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="57" t="s">
         <v>118</v>
       </c>
@@ -4415,64 +4465,64 @@
         <v>118</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="J12" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" s="51" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="L12" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="57" t="str">
+      <c r="M12" s="51" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N12" s="57" t="s">
+      <c r="N12" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="57" t="s">
+      <c r="O12" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="R12" s="57"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T12" s="58"/>
     </row>
     <row r="13" spans="1:64" ht="54">
       <c r="A13" s="50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="57" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J13" s="51" t="s">
         <v>35</v>
@@ -4491,94 +4541,94 @@
         <v>38</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="P13" s="51" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="51" t="s">
         <v>40</v>
       </c>
       <c r="R13" s="51"/>
       <c r="S13" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T13" s="58"/>
     </row>
-    <row r="14" spans="1:64" ht="39.75" customHeight="1">
+    <row r="14" spans="1:64" ht="54">
       <c r="A14" s="50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="57" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="52"/>
+        <v>144</v>
+      </c>
+      <c r="H14" s="62"/>
       <c r="I14" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="57" t="s">
         <v>35</v>
       </c>
       <c r="K14" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="51" t="s">
+      <c r="L14" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="51" t="str">
+      <c r="M14" s="57" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N14" s="51" t="s">
+      <c r="N14" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="51" t="s">
+      <c r="O14" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="51" t="s">
+      <c r="P14" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="51" t="s">
+      <c r="Q14" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="R14" s="51"/>
+      <c r="R14" s="57"/>
       <c r="S14" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T14" s="58"/>
     </row>
-    <row r="15" spans="1:64" ht="39.75" customHeight="1">
+    <row r="15" spans="1:64" ht="54">
       <c r="A15" s="50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="57" t="s">
         <v>120</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H15" s="62"/>
       <c r="I15" s="53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J15" s="57" t="s">
         <v>35</v>
@@ -4597,41 +4647,41 @@
         <v>38</v>
       </c>
       <c r="O15" s="57" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="P15" s="57" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R15" s="57"/>
       <c r="S15" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T15" s="58"/>
     </row>
-    <row r="16" spans="1:64" ht="39.75" customHeight="1">
+    <row r="16" spans="1:64" ht="54">
       <c r="A16" s="50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="57" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="62"/>
+        <v>146</v>
+      </c>
+      <c r="H16" s="52"/>
       <c r="I16" s="53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J16" s="57" t="s">
         <v>35</v>
@@ -4660,31 +4710,33 @@
       </c>
       <c r="R16" s="57"/>
       <c r="S16" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T16" s="58"/>
     </row>
-    <row r="17" spans="1:20" ht="39.75" customHeight="1">
+    <row r="17" spans="1:20" ht="54">
       <c r="A17" s="50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="93" t="s">
+        <v>79</v>
+      </c>
       <c r="E17" s="57" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J17" s="57" t="s">
         <v>35</v>
@@ -4713,33 +4765,31 @@
       </c>
       <c r="R17" s="57"/>
       <c r="S17" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T17" s="58"/>
     </row>
-    <row r="18" spans="1:20" ht="39.75" customHeight="1">
+    <row r="18" spans="1:20" ht="54">
       <c r="A18" s="50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="91" t="s">
-        <v>79</v>
-      </c>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J18" s="57" t="s">
         <v>35</v>
@@ -4768,31 +4818,33 @@
       </c>
       <c r="R18" s="57"/>
       <c r="S18" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T18" s="58"/>
     </row>
-    <row r="19" spans="1:20" ht="39.75" customHeight="1">
+    <row r="19" spans="1:20" ht="54">
       <c r="A19" s="50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="93" t="s">
+        <v>124</v>
+      </c>
       <c r="E19" s="57" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J19" s="57" t="s">
         <v>35</v>
@@ -4821,33 +4873,31 @@
       </c>
       <c r="R19" s="57"/>
       <c r="S19" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T19" s="58"/>
     </row>
-    <row r="20" spans="1:20" ht="39.75" customHeight="1">
+    <row r="20" spans="1:20" ht="54">
       <c r="A20" s="50">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="91" t="s">
-        <v>126</v>
-      </c>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="57" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J20" s="57" t="s">
         <v>35</v>
@@ -4876,52 +4926,52 @@
       </c>
       <c r="R20" s="57"/>
       <c r="S20" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T20" s="58"/>
     </row>
-    <row r="21" spans="1:20" ht="39.75" customHeight="1">
+    <row r="21" spans="1:20" ht="54">
       <c r="A21" s="50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="J21" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="72" t="s">
         <v>35</v>
       </c>
       <c r="K21" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="57" t="s">
+      <c r="L21" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="57" t="str">
+      <c r="M21" s="72" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N21" s="57" t="s">
+      <c r="N21" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="57" t="s">
+      <c r="O21" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="57" t="s">
+      <c r="P21" s="72" t="s">
         <v>39</v>
       </c>
       <c r="Q21" s="57" t="s">
@@ -4929,67 +4979,86 @@
       </c>
       <c r="R21" s="57"/>
       <c r="S21" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T21" s="58"/>
     </row>
-    <row r="22" spans="1:20" ht="39.75" customHeight="1">
+    <row r="22" spans="1:20" ht="54">
       <c r="A22" s="50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
+        <v>166</v>
+      </c>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
+        <v>152</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="57" t="str">
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
+      </c>
+      <c r="N22" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="57" t="s">
+        <v>40</v>
+      </c>
       <c r="R22" s="57"/>
       <c r="S22" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="T22" s="58"/>
+    </row>
+    <row r="23" spans="1:20" ht="54">
+      <c r="A23" s="50">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="T22" s="58"/>
-    </row>
-    <row r="23" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A23" s="50">
-        <v>17</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="57" t="s">
+        <v>128</v>
+      </c>
       <c r="E23" s="57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53" t="s">
-        <v>155</v>
+        <v>139</v>
+      </c>
+      <c r="G23" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65" t="s">
+        <v>169</v>
       </c>
       <c r="J23" s="57" t="s">
         <v>35</v>
@@ -5018,33 +5087,33 @@
       </c>
       <c r="R23" s="57"/>
       <c r="S23" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T23" s="58"/>
     </row>
     <row r="24" spans="1:20" ht="54">
       <c r="A24" s="50">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="92"/>
+        <v>168</v>
+      </c>
+      <c r="C24" s="95"/>
       <c r="D24" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="57" t="s">
-        <v>132</v>
-      </c>
       <c r="F24" s="57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G24" s="65" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H24" s="65"/>
       <c r="I24" s="65" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J24" s="57" t="s">
         <v>35</v>
@@ -5073,69 +5142,17 @@
       </c>
       <c r="R24" s="57"/>
       <c r="S24" s="57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T24" s="58"/>
     </row>
-    <row r="25" spans="1:20" ht="54">
-      <c r="A25" s="50">
-        <v>19</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="J25" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="57" t="s">
+    <row r="1048525" spans="12:12">
+      <c r="L1048525" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="57" t="str">
-        <f>표지!A10</f>
-        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
-      </c>
-      <c r="N25" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q25" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="T25" s="58"/>
     </row>
     <row r="1048526" spans="12:12">
-      <c r="L1048526" s="51" t="s">
-        <v>37</v>
-      </c>
+      <c r="L1048526" s="51"/>
     </row>
     <row r="1048527" spans="12:12">
       <c r="L1048527" s="51"/>
@@ -5274,9 +5291,6 @@
     </row>
     <row r="1048572" spans="12:12">
       <c r="L1048572" s="51"/>
-    </row>
-    <row r="1048573" spans="12:12">
-      <c r="L1048573" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5296,33 +5310,33 @@
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C7:C25"/>
+    <mergeCell ref="C7:C24"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D22"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q25" xr:uid="{14548DC8-756E-4250-992C-4EE69B6931E4}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7:Q24" xr:uid="{14548DC8-756E-4250-992C-4EE69B6931E4}">
       <formula1>"신규,변경,보류,삭제,추가"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:P25" xr:uid="{5D4E6F6B-43A0-4918-AC88-5DF0DCEF0CEB}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:P24" xr:uid="{5D4E6F6B-43A0-4918-AC88-5DF0DCEF0CEB}">
       <formula1>"상,중,하"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K25" xr:uid="{11099DDD-EFEF-4454-92BF-371C98B245C2}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K24" xr:uid="{11099DDD-EFEF-4454-92BF-371C98B245C2}">
       <formula1>"Y,N"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J25" xr:uid="{442EB81D-EB39-4FBB-9CBA-A98C2303772A}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J24" xr:uid="{442EB81D-EB39-4FBB-9CBA-A98C2303772A}">
       <formula1>"기능,비기능"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="S7:S25" xr:uid="{73A38A05-A711-4E9B-8930-3D295AE77574}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="S7:S24" xr:uid="{73A38A05-A711-4E9B-8930-3D295AE77574}">
       <formula1>"곽우영 차장, 박성수 주임, 노명운 사원, 곽우영 차장/박성수 주임, 박성수 주임/노명운 사원, 곽우영 차장/노명운 사원, 곽우영 차장/박성수 주임/노명운 사원"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5342,8 +5356,8 @@
   </sheetPr>
   <dimension ref="A1:BL1048569"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -5373,77 +5387,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="89" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -5457,60 +5471,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83" t="s">
+      <c r="L5" s="85"/>
+      <c r="M5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="83" t="s">
+      <c r="P5" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="83" t="s">
+      <c r="Q5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83" t="s">
+      <c r="R5" s="85"/>
+      <c r="S5" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="83" t="s">
+      <c r="T5" s="85" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="63" t="s">
         <v>26</v>
       </c>
@@ -5520,11 +5534,11 @@
       <c r="E6" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -5537,18 +5551,18 @@
       <c r="N6" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-    </row>
-    <row r="7" spans="1:20" ht="42.75" customHeight="1">
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+    </row>
+    <row r="7" spans="1:20" ht="54">
       <c r="A7" s="50">
         <v>1</v>
       </c>
@@ -5556,21 +5570,23 @@
         <v>69</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="H7" s="53"/>
+        <v>224</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>226</v>
+      </c>
       <c r="I7" s="53" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J7" s="64" t="s">
         <v>35</v>
@@ -5603,31 +5619,31 @@
       </c>
       <c r="T7" s="58"/>
     </row>
-    <row r="8" spans="1:20" ht="42.75" customHeight="1">
+    <row r="8" spans="1:20" ht="54">
       <c r="A8" s="50">
         <v>1</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="91" t="s">
-        <v>208</v>
+      <c r="C8" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="D8" s="71" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G8" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="H8" s="53" t="s">
-        <v>216</v>
-      </c>
       <c r="I8" s="53" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J8" s="71" t="s">
         <v>35</v>
@@ -5639,8 +5655,8 @@
         <v>37</v>
       </c>
       <c r="M8" s="71" t="str">
-        <f>표지!A11</f>
-        <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
       <c r="N8" s="71" t="s">
         <v>38</v>
@@ -5660,29 +5676,29 @@
       </c>
       <c r="T8" s="58"/>
     </row>
-    <row r="9" spans="1:20" ht="42.75" customHeight="1">
+    <row r="9" spans="1:20" ht="54">
       <c r="A9" s="50">
         <v>2</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="64" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J9" s="64" t="s">
         <v>35</v>
@@ -5722,7 +5738,7 @@
       <c r="B10" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="99" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -5732,16 +5748,16 @@
         <v>80</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H10" s="53" t="s">
         <v>101</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J10" s="57" t="s">
         <v>35</v>
@@ -5757,7 +5773,7 @@
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
       <c r="N10" s="57" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O10" s="57" t="s">
         <v>39</v>
@@ -5781,7 +5797,7 @@
       <c r="B11" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="57" t="s">
         <v>84</v>
       </c>
@@ -5792,13 +5808,13 @@
         <v>89</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H11" s="53" t="s">
         <v>111</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J11" s="57" t="s">
         <v>35</v>
@@ -5836,28 +5852,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="G12" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="H12" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" s="53" t="s">
         <v>196</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>200</v>
       </c>
       <c r="J12" s="64" t="s">
         <v>35</v>
@@ -5868,9 +5884,9 @@
       <c r="L12" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="64">
-        <f>표지!A3</f>
-        <v>0</v>
+      <c r="M12" s="72" t="str">
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
       <c r="N12" s="64" t="s">
         <v>38</v>
@@ -5890,25 +5906,25 @@
       </c>
       <c r="T12" s="58"/>
     </row>
-    <row r="13" spans="1:20" ht="51.75" customHeight="1">
+    <row r="13" spans="1:20" ht="54">
       <c r="A13" s="50">
         <v>12</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
+        <v>220</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="64" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="53" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J13" s="64" t="s">
         <v>35</v>
@@ -5919,9 +5935,9 @@
       <c r="L13" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="64">
-        <f>표지!A2</f>
-        <v>0</v>
+      <c r="M13" s="72" t="str">
+        <f>표지!A10</f>
+        <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
       <c r="N13" s="64" t="s">
         <v>38</v>
@@ -5948,7 +5964,7 @@
       <c r="B14" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="99" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="57" t="s">
@@ -6005,7 +6021,7 @@
       <c r="B15" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="97"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="57" t="s">
         <v>84</v>
       </c>
@@ -6014,7 +6030,7 @@
         <v>96</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H15" s="53" t="s">
         <v>103</v>
@@ -6060,14 +6076,14 @@
       <c r="B16" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="97" t="s">
-        <v>205</v>
+      <c r="C16" s="99" t="s">
+        <v>201</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F16" s="57" t="s">
         <v>97</v>
@@ -6117,7 +6133,7 @@
       <c r="B17" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="57" t="s">
         <v>85</v>
       </c>
@@ -6134,7 +6150,7 @@
         <v>105</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J17" s="57" t="s">
         <v>35</v>
@@ -6174,7 +6190,7 @@
       <c r="B18" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="97"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="57" t="s">
         <v>84</v>
       </c>
@@ -6185,11 +6201,11 @@
         <v>99</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="53" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J18" s="57" t="s">
         <v>35</v>
@@ -6236,7 +6252,7 @@
         <v>83</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F19" s="57" t="s">
         <v>100</v>
@@ -6286,28 +6302,24 @@
         <v>11</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>195</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="52"/>
       <c r="F20" s="64" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="53" t="s">
-        <v>201</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="H20" s="53"/>
       <c r="I20" s="53" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="J20" s="64" t="s">
         <v>35</v>
@@ -6345,20 +6357,22 @@
         <v>12</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
+        <v>220</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="D21" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="100"/>
       <c r="F21" s="57" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="H21" s="53"/>
       <c r="I21" s="53" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="J21" s="57" t="s">
         <v>35</v>
@@ -6538,10 +6552,8 @@
       <c r="L1048569" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="26">
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="C10:C11"/>

--- a/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
+++ b/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\003.intellij\illegalParking\src\main\resources\doc\설계 문서\1. 요구사항 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B0643E-3375-4285-8092-6DA22A9233DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46EEAE3-017E-4DE9-A2F1-D1E4D2F9BA6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="241">
   <si>
     <t>"수행기관명"</t>
   </si>
@@ -1008,13 +1008,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 불법 주정차 구역 등록
-- 불법 주정차 타입 등록
-- 불법 주정차 시간 등록
-- 관리자 등록 ( 관공서사용자 및 운영자 )</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1177,6 +1170,22 @@
   <si>
     <t>- 상품 등록 
 - 상품 목록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-ADMIN13</t>
+  </si>
+  <si>
+    <t>REQ-ADMIN14</t>
+  </si>
+  <si>
+    <t>REQ-ADMIN15</t>
+  </si>
+  <si>
+    <t>- 불법 주정차 구역 등록
+- 불법 주정차 타입 등록
+- 불법 주정차 시간 등록
+- 관리자만 등록 / 수정</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1819,6 +1828,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,6 +1843,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1840,18 +1864,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1896,9 +1908,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2419,55 +2428,55 @@
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
     </row>
     <row r="11" spans="1:13" ht="17.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
     </row>
     <row r="12" spans="1:13" ht="17.25">
       <c r="A12" s="7"/>
@@ -2485,66 +2494,66 @@
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:13" ht="6" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
     </row>
     <row r="17" spans="1:13" ht="17.25">
       <c r="A17" s="7"/>
@@ -2562,36 +2571,36 @@
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
     </row>
     <row r="20" spans="1:13" ht="17.25">
       <c r="A20" s="7"/>
@@ -2779,70 +2788,70 @@
       <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="83" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A4" s="79" t="str">
+      <c r="A4" s="84" t="str">
         <f>표지!A13</f>
         <v>요구사항정의서</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1">
       <c r="A6" s="26"/>
@@ -2922,54 +2931,54 @@
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="81"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="36" t="s">
         <v>7</v>
       </c>
@@ -2981,69 +2990,69 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A14" s="82">
+      <c r="A14" s="80">
         <v>0.1</v>
       </c>
-      <c r="B14" s="82"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
       <c r="K14" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -3052,13 +3061,13 @@
       <c r="A18" s="39"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
@@ -3067,94 +3076,111 @@
       <c r="A19" s="39"/>
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="37"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="A4:M5"/>
+    <mergeCell ref="A11:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:J20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="D24:J24"/>
     <mergeCell ref="A21:B21"/>
@@ -3163,23 +3189,6 @@
     <mergeCell ref="D22:J22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:J23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="A4:M5"/>
-    <mergeCell ref="A11:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3198,8 +3207,8 @@
   </sheetPr>
   <dimension ref="A1:BL1048558"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -3229,77 +3238,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="89" t="str">
+      <c r="A1" s="90" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -3313,60 +3322,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="K5" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85" t="s">
+      <c r="L5" s="86"/>
+      <c r="M5" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85" t="s">
+      <c r="N5" s="86"/>
+      <c r="O5" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="85" t="s">
+      <c r="P5" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="85" t="s">
+      <c r="Q5" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85" t="s" ph="1">
+      <c r="R5" s="86"/>
+      <c r="S5" s="86" t="s" ph="1">
         <v>24</v>
       </c>
-      <c r="T5" s="85" t="s">
+      <c r="T5" s="86" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -3376,11 +3385,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -3393,16 +3402,16 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="85" ph="1"/>
-      <c r="T6" s="85"/>
+      <c r="S6" s="86" ph="1"/>
+      <c r="T6" s="86"/>
     </row>
     <row r="7" spans="1:20" ht="54" customHeight="1">
       <c r="A7" s="50">
@@ -3411,7 +3420,7 @@
       <c r="B7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="87" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="60" t="s">
@@ -3468,7 +3477,7 @@
       <c r="B8" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="87"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="60" t="s">
         <v>171</v>
       </c>
@@ -3523,7 +3532,7 @@
       <c r="B9" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="87"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="60" t="s">
         <v>172</v>
       </c>
@@ -3578,7 +3587,7 @@
       <c r="B10" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="88"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="60" t="s">
         <v>176</v>
       </c>
@@ -3774,11 +3783,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="C7:C10"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -3793,6 +3797,11 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="C7:C10"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
@@ -3832,8 +3841,8 @@
   </sheetPr>
   <dimension ref="A1:BL1048572"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D16"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -3863,77 +3872,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="89" t="str">
+      <c r="A1" s="90" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
     </row>
     <row r="2" spans="1:64" ht="18" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -3947,60 +3956,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:64" ht="27.75" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="K5" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85" t="s">
+      <c r="L5" s="86"/>
+      <c r="M5" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85" t="s">
+      <c r="N5" s="86"/>
+      <c r="O5" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="85" t="s">
+      <c r="P5" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="85" t="s">
+      <c r="Q5" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85" t="s">
+      <c r="R5" s="86"/>
+      <c r="S5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="85" t="s">
+      <c r="T5" s="86" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="42.75" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -4010,11 +4019,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -4027,16 +4036,16 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
     </row>
     <row r="7" spans="1:64" s="68" customFormat="1" ht="54">
       <c r="A7" s="50">
@@ -4045,10 +4054,10 @@
       <c r="B7" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="97" t="s">
         <v>153</v>
       </c>
       <c r="E7" s="67" t="s">
@@ -4148,8 +4157,8 @@
       <c r="B8" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="97"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="98"/>
       <c r="E8" s="67" t="s">
         <v>154</v>
       </c>
@@ -4245,8 +4254,8 @@
       <c r="B9" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="98"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="67" t="s">
         <v>155</v>
       </c>
@@ -4344,8 +4353,8 @@
       <c r="B10" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="93" t="s">
+      <c r="C10" s="95"/>
+      <c r="D10" s="94" t="s">
         <v>115</v>
       </c>
       <c r="E10" s="57" t="s">
@@ -4358,7 +4367,7 @@
         <v>140</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I10" s="53" t="s">
         <v>140</v>
@@ -4401,8 +4410,8 @@
       <c r="B11" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="57" t="s">
         <v>117</v>
       </c>
@@ -4413,7 +4422,7 @@
         <v>141</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I11" s="53" t="s">
         <v>141</v>
@@ -4456,8 +4465,8 @@
       <c r="B12" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="57" t="s">
         <v>118</v>
       </c>
@@ -4509,13 +4518,13 @@
       <c r="B13" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G13" s="53" t="s">
         <v>143</v>
@@ -4562,8 +4571,8 @@
       <c r="B14" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="57" t="s">
         <v>119</v>
       </c>
@@ -4615,8 +4624,8 @@
       <c r="B15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="57" t="s">
         <v>120</v>
       </c>
@@ -4668,8 +4677,8 @@
       <c r="B16" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="57" t="s">
         <v>121</v>
       </c>
@@ -4721,8 +4730,8 @@
       <c r="B17" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="93" t="s">
+      <c r="C17" s="95"/>
+      <c r="D17" s="94" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="57" t="s">
@@ -4776,8 +4785,8 @@
       <c r="B18" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="57" t="s">
         <v>123</v>
       </c>
@@ -4829,8 +4838,8 @@
       <c r="B19" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="93" t="s">
+      <c r="C19" s="95"/>
+      <c r="D19" s="94" t="s">
         <v>124</v>
       </c>
       <c r="E19" s="57" t="s">
@@ -4884,8 +4893,8 @@
       <c r="B20" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="57" t="s">
         <v>125</v>
       </c>
@@ -4937,8 +4946,8 @@
       <c r="B21" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="57" t="s">
         <v>126</v>
       </c>
@@ -4990,8 +4999,8 @@
       <c r="B22" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="57" t="s">
         <v>127</v>
       </c>
@@ -5043,7 +5052,7 @@
       <c r="B23" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="94"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="57" t="s">
         <v>128</v>
       </c>
@@ -5098,7 +5107,7 @@
       <c r="B24" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="95"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="57" t="s">
         <v>129</v>
       </c>
@@ -5294,6 +5303,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C7:C24"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D22"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -5310,13 +5326,6 @@
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C7:C24"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D22"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
@@ -5356,8 +5365,8 @@
   </sheetPr>
   <dimension ref="A1:BL1048569"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -5387,77 +5396,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="89" t="str">
+      <c r="A1" s="90" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -5471,60 +5480,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="K5" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85" t="s">
+      <c r="L5" s="86"/>
+      <c r="M5" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85" t="s">
+      <c r="N5" s="86"/>
+      <c r="O5" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="85" t="s">
+      <c r="P5" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="85" t="s">
+      <c r="Q5" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85" t="s">
+      <c r="R5" s="86"/>
+      <c r="S5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="85" t="s">
+      <c r="T5" s="86" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="63" t="s">
         <v>26</v>
       </c>
@@ -5534,11 +5543,11 @@
       <c r="E6" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -5551,16 +5560,16 @@
       <c r="N6" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
     </row>
     <row r="7" spans="1:20" ht="54">
       <c r="A7" s="50">
@@ -5570,23 +5579,23 @@
         <v>69</v>
       </c>
       <c r="C7" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>221</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>222</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="H7" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="53" t="s">
         <v>224</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>225</v>
       </c>
       <c r="J7" s="64" t="s">
         <v>35</v>
@@ -5624,26 +5633,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>204</v>
+        <v>70</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>203</v>
       </c>
       <c r="D8" s="71" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G8" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="53" t="s">
         <v>208</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>209</v>
       </c>
       <c r="J8" s="71" t="s">
         <v>35</v>
@@ -5681,24 +5690,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="95"/>
+        <v>71</v>
+      </c>
+      <c r="C9" s="96"/>
       <c r="D9" s="64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G9" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="53" t="s">
         <v>213</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>214</v>
       </c>
       <c r="J9" s="64" t="s">
         <v>35</v>
@@ -5736,9 +5745,9 @@
         <v>3</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="100" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -5748,16 +5757,16 @@
         <v>80</v>
       </c>
       <c r="F10" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="53" t="s">
         <v>215</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>216</v>
       </c>
       <c r="H10" s="53" t="s">
         <v>101</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J10" s="57" t="s">
         <v>35</v>
@@ -5773,7 +5782,7 @@
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
       <c r="N10" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O10" s="57" t="s">
         <v>39</v>
@@ -5795,9 +5804,9 @@
         <v>4</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="99"/>
+        <v>73</v>
+      </c>
+      <c r="C11" s="100"/>
       <c r="D11" s="57" t="s">
         <v>84</v>
       </c>
@@ -5808,13 +5817,13 @@
         <v>89</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H11" s="53" t="s">
         <v>111</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J11" s="57" t="s">
         <v>35</v>
@@ -5852,15 +5861,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="94" t="s">
         <v>191</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -5911,11 +5920,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
+        <v>75</v>
+      </c>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="64" t="s">
         <v>193</v>
       </c>
@@ -5962,9 +5971,9 @@
         <v>5</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="100" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="57" t="s">
@@ -6019,9 +6028,9 @@
         <v>6</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="99"/>
+        <v>77</v>
+      </c>
+      <c r="C15" s="100"/>
       <c r="D15" s="57" t="s">
         <v>84</v>
       </c>
@@ -6030,7 +6039,7 @@
         <v>96</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="H15" s="53" t="s">
         <v>103</v>
@@ -6074,9 +6083,9 @@
         <v>7</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="100" t="s">
         <v>201</v>
       </c>
       <c r="D16" s="57" t="s">
@@ -6131,9 +6140,9 @@
         <v>8</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="99"/>
+        <v>189</v>
+      </c>
+      <c r="C17" s="100"/>
       <c r="D17" s="57" t="s">
         <v>85</v>
       </c>
@@ -6188,9 +6197,9 @@
         <v>9</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="99"/>
+        <v>219</v>
+      </c>
+      <c r="C18" s="100"/>
       <c r="D18" s="57" t="s">
         <v>84</v>
       </c>
@@ -6243,7 +6252,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="C19" s="57" t="s">
         <v>93</v>
@@ -6302,24 +6311,24 @@
         <v>11</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="73" t="s">
         <v>230</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>231</v>
       </c>
       <c r="E20" s="52"/>
       <c r="F20" s="64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J20" s="64" t="s">
         <v>35</v>
@@ -6357,22 +6366,22 @@
         <v>12</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="95"/>
+        <v>239</v>
+      </c>
+      <c r="C21" s="96"/>
       <c r="D21" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="E21" s="100"/>
+        <v>231</v>
+      </c>
+      <c r="E21" s="74"/>
       <c r="F21" s="57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H21" s="53"/>
       <c r="I21" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J21" s="57" t="s">
         <v>35</v>
@@ -6553,6 +6562,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="Q5:R5"/>
@@ -6567,18 +6588,6 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">

--- a/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
+++ b/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\003.intellij\illegalParking\src\main\resources\doc\설계 문서\1. 요구사항 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46EEAE3-017E-4DE9-A2F1-D1E4D2F9BA6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC41D8C3-C0B1-4860-8CA7-7C8FE8E83676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,12 +520,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 지도 보기 
-- 공공 주자장 마크 보기
-- 주차장 정보 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 공공 주차장 목록 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1173,9 +1167,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>REQ-ADMIN13</t>
-  </si>
-  <si>
     <t>REQ-ADMIN14</t>
   </si>
   <si>
@@ -1186,6 +1177,16 @@
 - 불법 주정차 타입 등록
 - 불법 주정차 시간 등록
 - 관리자만 등록 / 수정</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-ADMIN13</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지도 보기 
+- 공공 주차장 마크 보기
+- 주차장 정보 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1843,6 +1844,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1855,14 +1865,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1874,18 +1887,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2788,70 +2789,70 @@
       <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A2" s="83" t="str">
+      <c r="A2" s="79" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A4" s="84" t="str">
+      <c r="A4" s="80" t="str">
         <f>표지!A13</f>
         <v>요구사항정의서</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1">
       <c r="A6" s="26"/>
@@ -2931,54 +2932,54 @@
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
       <c r="K13" s="36" t="s">
         <v>7</v>
       </c>
@@ -2990,69 +2991,69 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A14" s="80">
+      <c r="A14" s="83">
         <v>0.1</v>
       </c>
-      <c r="B14" s="80"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
       <c r="K14" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -3061,13 +3062,13 @@
       <c r="A18" s="39"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
@@ -3076,111 +3077,94 @@
       <c r="A19" s="39"/>
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="37"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="A4:M5"/>
-    <mergeCell ref="A11:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:J20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="D24:J24"/>
     <mergeCell ref="A21:B21"/>
@@ -3189,6 +3173,23 @@
     <mergeCell ref="D22:J22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:J23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="A4:M5"/>
+    <mergeCell ref="A11:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3238,77 +3239,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="86" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -3322,60 +3323,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86" t="s">
+      <c r="L5" s="90"/>
+      <c r="M5" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86" t="s">
+      <c r="N5" s="90"/>
+      <c r="O5" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="86" t="s">
+      <c r="P5" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="86" t="s">
+      <c r="Q5" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86" t="s" ph="1">
+      <c r="R5" s="90"/>
+      <c r="S5" s="90" t="s" ph="1">
         <v>24</v>
       </c>
-      <c r="T5" s="86" t="s">
+      <c r="T5" s="90" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -3385,11 +3386,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -3402,16 +3403,16 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="86" ph="1"/>
-      <c r="T6" s="86"/>
+      <c r="S6" s="90" ph="1"/>
+      <c r="T6" s="90"/>
     </row>
     <row r="7" spans="1:20" ht="54" customHeight="1">
       <c r="A7" s="50">
@@ -3420,24 +3421,24 @@
       <c r="B7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="91" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J7" s="54" t="s">
         <v>35</v>
@@ -3466,7 +3467,7 @@
       </c>
       <c r="R7" s="54"/>
       <c r="S7" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T7" s="59"/>
     </row>
@@ -3477,22 +3478,22 @@
       <c r="B8" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="88"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J8" s="54" t="s">
         <v>35</v>
@@ -3521,7 +3522,7 @@
       </c>
       <c r="R8" s="54"/>
       <c r="S8" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T8" s="59"/>
     </row>
@@ -3532,22 +3533,22 @@
       <c r="B9" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="88"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="60" t="s">
-        <v>173</v>
-      </c>
       <c r="F9" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>35</v>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="R9" s="60"/>
       <c r="S9" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T9" s="59"/>
     </row>
@@ -3587,22 +3588,22 @@
       <c r="B10" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="F10" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>178</v>
-      </c>
       <c r="G10" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J10" s="60" t="s">
         <v>35</v>
@@ -3631,7 +3632,7 @@
       </c>
       <c r="R10" s="54"/>
       <c r="S10" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T10" s="59"/>
     </row>
@@ -3783,6 +3784,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="C7:C10"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -3799,9 +3803,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="C7:C10"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
@@ -3872,77 +3873,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="86" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
     </row>
     <row r="2" spans="1:64" ht="18" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:64" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -3956,60 +3957,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:64" ht="27.75" customHeight="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86" t="s">
+      <c r="L5" s="90"/>
+      <c r="M5" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86" t="s">
+      <c r="N5" s="90"/>
+      <c r="O5" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="86" t="s">
+      <c r="P5" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="86" t="s">
+      <c r="Q5" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86" t="s">
+      <c r="R5" s="90"/>
+      <c r="S5" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="86" t="s">
+      <c r="T5" s="90" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="42.75" customHeight="1">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -4019,11 +4020,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -4036,16 +4037,16 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
     </row>
     <row r="7" spans="1:64" s="68" customFormat="1" ht="54">
       <c r="A7" s="50">
@@ -4058,22 +4059,22 @@
         <v>53</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="66" t="s">
+      <c r="H7" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="I7" s="69" t="s">
         <v>162</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>163</v>
       </c>
       <c r="J7" s="57" t="s">
         <v>35</v>
@@ -4102,7 +4103,7 @@
       </c>
       <c r="R7" s="57"/>
       <c r="S7" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T7" s="67"/>
       <c r="U7" s="43"/>
@@ -4160,17 +4161,17 @@
       <c r="C8" s="95"/>
       <c r="D8" s="98"/>
       <c r="E8" s="67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H8" s="69"/>
       <c r="I8" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8" s="57" t="s">
         <v>35</v>
@@ -4199,7 +4200,7 @@
       </c>
       <c r="R8" s="57"/>
       <c r="S8" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T8" s="67"/>
       <c r="U8" s="43"/>
@@ -4257,19 +4258,19 @@
       <c r="C9" s="95"/>
       <c r="D9" s="99"/>
       <c r="E9" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="67" t="s">
-        <v>156</v>
-      </c>
       <c r="G9" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="69" t="s">
-        <v>159</v>
-      </c>
       <c r="I9" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J9" s="57" t="s">
         <v>35</v>
@@ -4298,7 +4299,7 @@
       </c>
       <c r="R9" s="57"/>
       <c r="S9" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T9" s="67"/>
       <c r="U9" s="43"/>
@@ -4355,22 +4356,22 @@
       </c>
       <c r="C10" s="95"/>
       <c r="D10" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="57" t="s">
-        <v>116</v>
-      </c>
       <c r="F10" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>35</v>
@@ -4399,7 +4400,7 @@
       </c>
       <c r="R10" s="51"/>
       <c r="S10" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T10" s="58"/>
     </row>
@@ -4413,19 +4414,19 @@
       <c r="C11" s="95"/>
       <c r="D11" s="95"/>
       <c r="E11" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J11" s="51" t="s">
         <v>35</v>
@@ -4444,17 +4445,17 @@
         <v>38</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P11" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="51" t="s">
         <v>40</v>
       </c>
       <c r="R11" s="51"/>
       <c r="S11" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T11" s="58"/>
     </row>
@@ -4468,17 +4469,17 @@
       <c r="C12" s="95"/>
       <c r="D12" s="95"/>
       <c r="E12" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J12" s="51" t="s">
         <v>35</v>
@@ -4497,17 +4498,17 @@
         <v>38</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P12" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q12" s="51" t="s">
         <v>40</v>
       </c>
       <c r="R12" s="51"/>
       <c r="S12" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T12" s="58"/>
     </row>
@@ -4521,17 +4522,17 @@
       <c r="C13" s="95"/>
       <c r="D13" s="95"/>
       <c r="E13" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J13" s="51" t="s">
         <v>35</v>
@@ -4550,17 +4551,17 @@
         <v>38</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P13" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="51" t="s">
         <v>40</v>
       </c>
       <c r="R13" s="51"/>
       <c r="S13" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T13" s="58"/>
     </row>
@@ -4574,17 +4575,17 @@
       <c r="C14" s="95"/>
       <c r="D14" s="95"/>
       <c r="E14" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="62"/>
       <c r="I14" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J14" s="57" t="s">
         <v>35</v>
@@ -4613,7 +4614,7 @@
       </c>
       <c r="R14" s="57"/>
       <c r="S14" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T14" s="58"/>
     </row>
@@ -4627,17 +4628,17 @@
       <c r="C15" s="95"/>
       <c r="D15" s="95"/>
       <c r="E15" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="62"/>
       <c r="I15" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J15" s="57" t="s">
         <v>35</v>
@@ -4656,17 +4657,17 @@
         <v>38</v>
       </c>
       <c r="O15" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P15" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R15" s="57"/>
       <c r="S15" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T15" s="58"/>
     </row>
@@ -4680,17 +4681,17 @@
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
       <c r="E16" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J16" s="57" t="s">
         <v>35</v>
@@ -4719,7 +4720,7 @@
       </c>
       <c r="R16" s="57"/>
       <c r="S16" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T16" s="58"/>
     </row>
@@ -4735,17 +4736,17 @@
         <v>79</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" s="57" t="s">
         <v>35</v>
@@ -4774,7 +4775,7 @@
       </c>
       <c r="R17" s="57"/>
       <c r="S17" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T17" s="58"/>
     </row>
@@ -4788,17 +4789,17 @@
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
       <c r="E18" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J18" s="57" t="s">
         <v>35</v>
@@ -4827,7 +4828,7 @@
       </c>
       <c r="R18" s="57"/>
       <c r="S18" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T18" s="58"/>
     </row>
@@ -4840,20 +4841,20 @@
       </c>
       <c r="C19" s="95"/>
       <c r="D19" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="57" t="s">
-        <v>136</v>
-      </c>
       <c r="G19" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J19" s="57" t="s">
         <v>35</v>
@@ -4882,7 +4883,7 @@
       </c>
       <c r="R19" s="57"/>
       <c r="S19" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T19" s="58"/>
     </row>
@@ -4896,17 +4897,17 @@
       <c r="C20" s="95"/>
       <c r="D20" s="95"/>
       <c r="E20" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="57" t="s">
         <v>35</v>
@@ -4935,7 +4936,7 @@
       </c>
       <c r="R20" s="57"/>
       <c r="S20" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T20" s="58"/>
     </row>
@@ -4949,17 +4950,17 @@
       <c r="C21" s="95"/>
       <c r="D21" s="95"/>
       <c r="E21" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="72" t="s">
         <v>35</v>
@@ -4988,7 +4989,7 @@
       </c>
       <c r="R21" s="57"/>
       <c r="S21" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T21" s="58"/>
     </row>
@@ -4997,22 +4998,22 @@
         <v>17</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="95"/>
       <c r="D22" s="96"/>
       <c r="E22" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J22" s="57" t="s">
         <v>35</v>
@@ -5041,7 +5042,7 @@
       </c>
       <c r="R22" s="57"/>
       <c r="S22" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T22" s="58"/>
     </row>
@@ -5050,24 +5051,24 @@
         <v>18</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="95"/>
       <c r="D23" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H23" s="65"/>
       <c r="I23" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J23" s="57" t="s">
         <v>35</v>
@@ -5096,7 +5097,7 @@
       </c>
       <c r="R23" s="57"/>
       <c r="S23" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T23" s="58"/>
     </row>
@@ -5105,24 +5106,24 @@
         <v>19</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" s="96"/>
       <c r="D24" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="57" t="s">
-        <v>130</v>
-      </c>
       <c r="F24" s="57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H24" s="65"/>
       <c r="I24" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J24" s="57" t="s">
         <v>35</v>
@@ -5151,7 +5152,7 @@
       </c>
       <c r="R24" s="57"/>
       <c r="S24" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T24" s="58"/>
     </row>
@@ -5303,13 +5304,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C7:C24"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D22"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -5326,6 +5320,13 @@
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C7:C24"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D22"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
@@ -5365,8 +5366,8 @@
   </sheetPr>
   <dimension ref="A1:BL1048569"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -5396,77 +5397,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="86" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
+      <c r="A3" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -5480,60 +5481,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86" t="s">
+      <c r="L5" s="90"/>
+      <c r="M5" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86" t="s">
+      <c r="N5" s="90"/>
+      <c r="O5" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="86" t="s">
+      <c r="P5" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="86" t="s">
+      <c r="Q5" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86" t="s">
+      <c r="R5" s="90"/>
+      <c r="S5" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="86" t="s">
+      <c r="T5" s="90" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="63" t="s">
         <v>26</v>
       </c>
@@ -5543,11 +5544,11 @@
       <c r="E6" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -5560,16 +5561,16 @@
       <c r="N6" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
     </row>
     <row r="7" spans="1:20" ht="54">
       <c r="A7" s="50">
@@ -5579,23 +5580,23 @@
         <v>69</v>
       </c>
       <c r="C7" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>220</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>221</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="H7" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="53" t="s">
         <v>223</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>224</v>
       </c>
       <c r="J7" s="64" t="s">
         <v>35</v>
@@ -5614,10 +5615,10 @@
         <v>38</v>
       </c>
       <c r="O7" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P7" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="64" t="s">
         <v>40</v>
@@ -5636,23 +5637,23 @@
         <v>70</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="71" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G8" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="53" t="s">
         <v>207</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>208</v>
       </c>
       <c r="J8" s="71" t="s">
         <v>35</v>
@@ -5671,10 +5672,10 @@
         <v>38</v>
       </c>
       <c r="O8" s="71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P8" s="71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="71" t="s">
         <v>40</v>
@@ -5694,20 +5695,20 @@
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G9" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="53" t="s">
         <v>212</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>213</v>
       </c>
       <c r="J9" s="64" t="s">
         <v>35</v>
@@ -5726,10 +5727,10 @@
         <v>38</v>
       </c>
       <c r="O9" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P9" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="64" t="s">
         <v>40</v>
@@ -5757,16 +5758,16 @@
         <v>80</v>
       </c>
       <c r="F10" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="53" t="s">
-        <v>215</v>
-      </c>
       <c r="H10" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J10" s="57" t="s">
         <v>35</v>
@@ -5782,7 +5783,7 @@
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
       <c r="N10" s="57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O10" s="57" t="s">
         <v>39</v>
@@ -5817,13 +5818,13 @@
         <v>89</v>
       </c>
       <c r="G11" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="53" t="s">
         <v>216</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>217</v>
       </c>
       <c r="J11" s="57" t="s">
         <v>35</v>
@@ -5864,25 +5865,25 @@
         <v>74</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="64" t="s">
-        <v>192</v>
-      </c>
       <c r="G12" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="I12" s="53" t="s">
         <v>195</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>196</v>
       </c>
       <c r="J12" s="64" t="s">
         <v>35</v>
@@ -5901,10 +5902,10 @@
         <v>38</v>
       </c>
       <c r="O12" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="64" t="s">
         <v>40</v>
@@ -5926,14 +5927,14 @@
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
       <c r="F13" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="53" t="s">
         <v>193</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>194</v>
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J13" s="64" t="s">
         <v>35</v>
@@ -5983,14 +5984,14 @@
         <v>86</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="53" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J14" s="57" t="s">
         <v>35</v>
@@ -6019,7 +6020,7 @@
       </c>
       <c r="R14" s="57"/>
       <c r="S14" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T14" s="58"/>
     </row>
@@ -6036,16 +6037,16 @@
       </c>
       <c r="E15" s="57"/>
       <c r="F15" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" s="57" t="s">
         <v>35</v>
@@ -6074,7 +6075,7 @@
       </c>
       <c r="R15" s="57"/>
       <c r="S15" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T15" s="58"/>
     </row>
@@ -6086,23 +6087,23 @@
         <v>78</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="H16" s="53"/>
       <c r="I16" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J16" s="57" t="s">
         <v>35</v>
@@ -6121,17 +6122,17 @@
         <v>38</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P16" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R16" s="57"/>
       <c r="S16" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T16" s="58"/>
     </row>
@@ -6140,7 +6141,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="100"/>
       <c r="D17" s="57" t="s">
@@ -6150,16 +6151,16 @@
         <v>87</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J17" s="57" t="s">
         <v>35</v>
@@ -6178,10 +6179,10 @@
         <v>38</v>
       </c>
       <c r="O17" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P17" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="57" t="s">
         <v>40</v>
@@ -6197,7 +6198,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="100"/>
       <c r="D18" s="57" t="s">
@@ -6207,14 +6208,14 @@
         <v>88</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J18" s="57" t="s">
         <v>35</v>
@@ -6233,10 +6234,10 @@
         <v>38</v>
       </c>
       <c r="O18" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P18" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="57" t="s">
         <v>40</v>
@@ -6252,28 +6253,28 @@
         <v>10</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>83</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J19" s="57" t="s">
         <v>35</v>
@@ -6292,17 +6293,17 @@
         <v>38</v>
       </c>
       <c r="O19" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P19" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R19" s="57"/>
       <c r="S19" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T19" s="58"/>
     </row>
@@ -6311,24 +6312,24 @@
         <v>11</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C20" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="73" t="s">
         <v>229</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>230</v>
       </c>
       <c r="E20" s="52"/>
       <c r="F20" s="64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J20" s="64" t="s">
         <v>35</v>
@@ -6347,10 +6348,10 @@
         <v>38</v>
       </c>
       <c r="O20" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P20" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="64" t="s">
         <v>40</v>
@@ -6366,22 +6367,22 @@
         <v>12</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C21" s="96"/>
       <c r="D21" s="73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E21" s="74"/>
       <c r="F21" s="57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H21" s="53"/>
       <c r="I21" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J21" s="57" t="s">
         <v>35</v>
@@ -6562,18 +6563,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="Q5:R5"/>
@@ -6588,6 +6577,18 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">

--- a/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
+++ b/src/main/resources/doc/설계 문서/1. 요구사항 정의서/요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\003.intellij\illegalParking\src\main\resources\doc\설계 문서\1. 요구사항 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC41D8C3-C0B1-4860-8CA7-7C8FE8E83676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC141136-83E2-4B46-8A2B-23FE97E53BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="263">
   <si>
     <t>"수행기관명"</t>
   </si>
@@ -433,9 +433,6 @@
     <t>REQ-AI3</t>
   </si>
   <si>
-    <t>REQ-AI8</t>
-  </si>
-  <si>
     <t>AI</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -479,10 +476,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>신고 결정 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>불법 주정차 구역</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -508,15 +501,6 @@
   </si>
   <si>
     <t>주차장 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>접수된 신고 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- 불법 주정차 구역 보기 
-- 불법 주정차 위치 이동 </t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -529,12 +513,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 맵 보기 
-- PM 위치 보기
-- 업체별 표시</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>불법 주정차 구역 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -543,10 +521,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>공공 주차장 맵 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>공공 주차장 목록 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -556,19 +530,6 @@
   </si>
   <si>
     <t>PM 맵 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- 신고 정보는 A 신고자 로 부터 2회 신고 등록이 되어야 한다. 
-- 2최 신고 기간은 1분 ~ 5분 사이어야 한다. 
-- A 신고자가 2회 신고 기간이 넘어 가면 초기화 하고 접수 등록에 사유 정보를 등록한다. 
-- 한건의 불법 주정차는 누구나 접수 가능하며 가장 먼저 2회가 접수 되어 신고 등록이 된 건수가 신고 접수 된다.  신고 접수가 되면 그외 모든 신고 등록 정보는 사유 정보를 등록한다. 
-</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 구역 타입 별 보기
-- 특별 구역인 경우 정보 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -578,21 +539,10 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">- 공공 주차장 마크 표시
-- 공공 주차장 정보 표시 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 지도에서 보이지 않는 정보 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 지도 보기
-- PM 위치 마크 표시
-- 업체별 구별 하여 표시</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- PM 업체와 연동 ( 좌표 연계 필요 )</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -601,21 +551,10 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 불법 주정차를 다각형 모양으로 등록
-- 불법 주정차에 따라 색상으로 구별 하여 등록
-- 불법 주정차 정보 등록
-- 권한 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 페이지</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 관공서에서 요청할 경우 정보를 바로 보내 줄수 있는 API 가 필요</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>하</t>
   </si>
   <si>
@@ -637,14 +576,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>공공 주차장 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림 여부 체크</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>맵 확대 / 축소</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -697,10 +628,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>알림 여부 체크 하기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>신고이력 정보보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -718,12 +645,6 @@
   </si>
   <si>
     <t>공지사항 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터넷 사용 권한
-카메라 사용 권한
-겔러리 사용 권한</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -737,13 +658,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 공공 주차장 표시 
-- 공공 주차장 정보 보기
-- 전화 연결하기
-- 네비게이션 ( 길찾기 )</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- PM 표시 
 - 정보 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -753,10 +667,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 지도 맵 확대 / 축소</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 현재 위치로 이동</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -766,29 +676,10 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 번호판 촬영
-- AI 를 통해 번호판 인식 후 번호파 텍스트 정보 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 불법 주정차 신고 알림 차량 등록</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 불법 주정차 차량 신고 이력 보기
-- 상세 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 신고 후 포인트 정보 이력 보기
-- 상세 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- 공지 사항 보기 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -805,23 +696,11 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 사용자 로그인</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 지도 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 신고 및 내 정보는 로그인 후 사용 가능</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>회원 가입</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- 회원 가입 </t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -830,17 +709,7 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 회원 등록 
-- 인증 번호 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>박성수 주임/노명운 사원</t>
-  </si>
-  <si>
-    <t>- 지도 보기 
-- 기타 화면에서는 로그인 후 사용 알림 표시</t>
-    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>REQ-MOBILE16</t>
@@ -886,10 +755,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>문자 전송</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>번호판 전송</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -902,37 +767,11 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">- 각도가 삐툴어진 이미지는 평평하도록 보정 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- YOLO 에서 분류된 이미지 를 통해 문자 추출</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 번호판 이미지 판별 요청
 - 판별 결과 응답</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 전송 API 서버 구현</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- PYTHON 의 LIBRARY 를 이용한 OPENCV 프로그램 구현</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- YOLO 서버 구현
-- YOLO 를 통해 번호판 이미지 학습 구현</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- OCR 서버 구현
-- OCR 문자 타입 학습 구현</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>관공서</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -949,15 +788,6 @@
   </si>
   <si>
     <t xml:space="preserve">관공서 추가 / 수정 / 삭제 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">그룹 추가 / 수정 / 삭제 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 불법 주정차 그룹 추가 / 삭제 
-- 그룹의 신고 건수 / 대기 건수 / 처리 건수 / 미 처리 건수 정보</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -977,31 +807,15 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 관리 그룹 추가
-- 관리 그룹의 신고 통계 정보 표시 ( pie 챠트 )</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 공공 주차장 정보 등록 
 - 일괄 등록</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 공공 주차장 상세 정보 등록
-- 엑셀 파일 등록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>공영 주차장</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 공영 주차장 리스트 보기
-- 공영 주차장 정보 상세보기 
-- 공영 주차장 정보 수정</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1018,18 +832,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">- 공지사항 리스트 보기
-- 검색 기능 
-- 필터 ( 제목 / 내용 ) </t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- 공지사항 리스트 보기
-- 검색 기능 
-- 필터 기능 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항 목록</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1038,57 +840,14 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 분류 : 공지 / 소식</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>- 공지사항 등록 / 수정 / 삭제</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 공지 사항 등록 
-- 공지 사항 수정
-- 공지 사항 삭제</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>신고 등록 및 접수 목록</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 관리자 인 경우 신고 등록 목록 보기 
-- 관리자 인 경우 신고 접수 목록 보기 
-- 기관 사용자 인 경우 신고 접수 목록 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 불법 주정차 사진 보기
-- 불법 주정차 구역 보기
-- 불법 주정차 시간 보기
-- 2회 비교 정보 보기
-- 기관 사용자인 경우 과태료대상 / 제외 여부 등록 
-- 기관과 연계하여 정보 전달</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 불법 주정차 사진 보기 
-- 불법 주정차 구역을 타입정보 보기
-- 불법 주정차 구역의 시간 보기
-- 2회 비교 대상 정보 보기
-- 기관 사용자의 과태료대상 / 제외 여부 등록 
-- 기관 사용자의 과태료 대상 / 제외에 대한 부연 설명 등록
-- 과태료대상 정보 요청 API 구현</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 신고 목록 보기 
-- 신고 접수 보기 
-- 관리자 인 경우 신고 등록 보기 
-- 관리자 인 경우 신고 접수 보기
-- 기관 사용자 인 경우 구분하여 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>REQ-ADMIN12</t>
   </si>
   <si>
@@ -1104,27 +863,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>- 해당 기관의 관리 그룹의 총 신고 건수
-- 해당 기관의 관리 그룹의 총 신고 처리 건수
-- 해당 기관의 관리 그룹의 총 신고 미처리 건수</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- 기관 사용자 전용 화면 전환 
-- 통계 정보에 대한 
-- 필터 기능 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 관리자는 통계 자료 제외
-- 해당 기관의 관리 그룹에 대한 통계 자료만 보기</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 신고 건수는 괴태료대상 건수만 해당</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>PM(퍼스널 모빌리티) 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1154,11 +892,6 @@
   </si>
   <si>
     <t>- 포인트 제공 및 포인트 사용 정보 목록</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 포인트 제공 목록
-- 포인트 사용 목록 ( 상품 구매 목록 )</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -1173,20 +906,414 @@
     <t>REQ-ADMIN15</t>
   </si>
   <si>
-    <t>- 불법 주정차 구역 등록
-- 불법 주정차 타입 등록
-- 불법 주정차 시간 등록
-- 관리자만 등록 / 수정</t>
+    <t>- 각도가 삐툴어진 이미지는 평평하도록 보정 
+- 멀어진 이미지를 기본 번호판과 동일 한 이미지 로 보정</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 번호판 이미지를 수평선 각도로 맞추도록 보정 구현
+- 멀어지는 번호판을 2차 평면처럼 보정 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- YOLO 와 OPENCV 에서 정제된 이미지 를 통해 문자 추출</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 폰트체 학습 및 학습 데이터 생성 구현
+- 문자 인식 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- YOLO 서버 구현
+- YOLO 를 통해 번호판 이미지 학습 및 학습 데이터 생성 구현 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Restfull API - Request 기능 구현 ( 파일이미지 )
+- Restfull API - Response 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-AI4</t>
+  </si>
+  <si>
+    <t>전송</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- ID 중복 검사 
+- 개인 핸드폰 인증 ( 문자 인증 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- ID 중복 검사 구현 
+- 문자 인증 번호 전송 및 인증 구현
+- 사용자 등록 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 지도보기 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 사용자 인증 기능</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지도맵 이동 기능 구현
+- 사용자 인증 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지도 이동 기능 구현 
+- 신고 이동 제한 기능 구현 
+- 내정보 이동 제한 기능 구현
+- 로그인 화면 보기 이동 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 구역은  불법주정차 과 5분주정차 구역으로 나뉜다.
+- 신고 건수는 괴태료대상 건수만 해당</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>공영 주차장 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공영 주차장 표시 
+- 공영 주차장 정보 보기
+- 전화 연결하기
+- 네비게이션 ( 길찾기 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 길찾기 연동은 네이버 지도와 한다.</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 전동 키고보드 위치 마크 표시기능 구현
+- 공영 자전거 위치 마크 표시기능 구현
+- PM 이용 가격 및 운영 시간 정보 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공영 주차장 마크 표시 기능 구현
+- 공영 주차장 가격 및 운영 정보 보기 기능 구현
+- 전화 연결하기 기능 구현
+- 네비게이션 앱 연동 기능 구현 ( 네이버 지도 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 신고 정보 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 건수 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지도 맵 확대 
+- 지도 맵 축소</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 지도 맵 확대 기능 구현
+- 지도 맵 축소 기능 구현 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 현재 위치로 이동 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법주정차 번호판 촬영 
+- AI 를 통해 번호판 작성</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지도 맵 열기 했을때 초기에 나의 위치 이동 한다.</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 멀티 터치에 의한 확대 미적용 한다.
+- 멀티 터치에 의한 축소 미적용 한다.</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 번호판만 촬영 하도록 해야 한다. 
+- 스마트폰에서는 인터넷이 사용 가능 해야한다. 
+  ( LTE 또는 WIFI )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 위반의 근거를 남기기 위한 촬영을 하도록 해야 한다. 
+- 신고 후 알림으로 상태 정보를 확인 할 수 있어야 한다. </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 번호판 촬영 기능 구현
+- 번호판 이지미 전송 기능 구현
+- 번호판 정보 텍스트 입력 기능 구현
+- 재 촬영 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 차량 전체 촬영 기능 구현
+- 현재 위치의 정보 보기 기능 구현
+- 신고 하기 기능 구현
+- 재 촬영 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 신고 알림 등록 기능 구현
+- 문자 알림 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 불법주정차 신고 알림은 문자 서비스를 이용한다. </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 차량 신고 이력 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 차량 신고 이력 목록 보기 기능 구현
+- 상세 보기 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 신고 후 포인트 정보 이력 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 신고 후 포인트 이력 목록 보기 기능 구현
+- 상세 보기 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 인터넷 사용 권한 설정 기능 구현
+- 카메라 사용 권한 설정 기능 구현
+- 겔러리 사용 권한 설정 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 인터넷 사용 권한 설정 기능 구현 
+- 카메라 사용 권한 설정 기능 구현
+- 이미지 저장 권한 설정 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공지 사항 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공지 사항 목록 보기 기능 구현
+- 상세 보기 기능 구현</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>REQ-ADMIN13</t>
+  </si>
+  <si>
+    <t>- 신고, 처리, 미처리의 건수 파이 차트 보기 기능 구현
+- 월별 신고 와 제외에 바 차트 보기 기능 구현
+- 총 신고 건수중 기관에 전송한 건수 정보 보기 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 기관에만 보이는 페이지로 한다. 
+- 해당 기관의 관리 그룹에 속한 통계 자료만 보이도록 한다.</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공지사항 리스트 보기
+- 검색 기능 
+- 필터 기능</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 공지사항은 공지 와 소식 두가지로 분류 한다. 
+- 공지는 항상 제일 상위에 위치한다. 
+- 필터는 제목 과 내용만 한다. </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공지사항 리스트 보기 기능 구현
+- 검색 기능 구현
+- 필터 기능 구현 (필터 요소 : 제목, 내용 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공지 사항 등록 / 수정 / 삭제 기능 구현 
+- 상세 보기 기능 구현 
+- 에디터 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관리자 의 신고 등록 목록 보기 
+- 관리자 의 신고 접수 목록 보기 
+- 기관 사용자의 신고 접수 목록 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 관리자의 신고 목록 보기 기능 구현
+- 관리자의 신고 접수 보기 기능 구현
+- 기관 사용자의 접수 보기 기능 구현
+- 상세 보기 기능 구현
+- 신고 등록 기능 구현 ( 최소 신고 발생 / 제외 / 종료 등 )
+- 신고 접수 기능 구현 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관리자의 신고 등록 사진 보기
+- 관리자의 신고 접수 사진 보기
+- 관리자의 신고 등록 및 접수의 정보 보기
+- 관리자의 신고 접수시 2회 비교 사진 및 정보 보기
+- 기관 사용자의 신고 접수 사진 및 2회 비교 사진 보기
+- 기관 사용자의 신고 접수시 2회 비교 정보 보기
+- 기관과 연계하여 정보 전달</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기 및 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기 및 신고 판별 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 관리자는 상세보기만 한다. 
+- 기관사용자는 최종 불법주정차 차량 신고를 판별하여 등록 한다. 
+- 기관에서 요청할 경우 정보를 바로 보내 줄수 있는 API 가 존재 해야 한다. </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 2개의 사진 보기 기능 구현
+- 불법 주정차 2개의 정보 보기 기능 구현
+- 관리자 모드 보기 기능 구현
+- 관리자 모드 상세 보기 기능 구현
+- 기관 사용자 모드 보기 기능 구현
+- 기관 사용자 상세보기 및 과태료대상 등록 기능 구현
+- 과태료대상 정보 요청 API 기능 구현 ( 기관 연계 기능 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 신고 정보는 A 신고자 로 부터 2회 신고 등록이 되어야 한다. 
+- 2최 신고 기간은 1분 ~ 5분 사이어야 한다. 
+- A 신고자가 2회 신고 기간이 넘어 가면 초기화 하고 접수 등록에 사유 정보를 등록한다. 
+- 한건의 불법 주정차는 누구나 접수 가능하며 가장 먼저 2회가 접수 되어 신고 등록이 된 건수가 신고 접수 된다.  신고 접수가 되면 그외 모든 신고 등록 정보는 사유 정보를 등록한다. </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 추가 / 수정 / 삭제</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 그룹 추가 / 수정 / 삭제
+- 그룹의 신고 건수 / 대기 건수 / 처리 건수 / 미 처리 건수 정보 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관리 그룹 추가 / 수정 / 삭제 기능 구현
+- 관리 그룹의 신고 통계를 pie 그래프로 표현 하는 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 구역 보기 
+- 불법 주정차 구역의 신고 건수 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 구역 보기 기능 구현 
+- 불법주정차 와 5분 주정차 지역 구분 보기 기능 구현
+- 구역의 관태료대상 신고 건수 보기 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 불법 주정차 구역 / 타입 / 시간 / 관리 그룹 등록</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 불법 주정차를 다각형 모양으로 표시 기능 구현
+- 불법 주정차의 타입 따라 색상으로 표현 하는 기능 구현
+- 불법 주정차 구역 등록 / 수정 기능 구현
+- 불법 주정차 관리 그룹 / 시간 / 타입 설정 기능 구현
+- 위치 이동 기능 구현 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>공영 주차장 맵 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>- 지도 보기 
-- 공공 주차장 마크 보기
-- 주차장 정보 보기</t>
+- 공영 주차장 위치 표시 보기
+- 공영 주차장 정보 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 맵 보기 기능 구현
+- 공영 주차장 위치 표시 기능 구현
+- 공영 주차장 정보 표시 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 공영 주차장 정보는 주차장이름, 운영시간, 가격, 전화번호를 표시한다. </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공영 주차장 목록 보기 기능 구현
+- 검색 기능 구현
+- 필터 기능 구현 (필터 요소 : 주차장이름, 요금 )
+- 공영 주차장 상세 보기 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공영 주차장 상세 정보 등록 / 수정 기능 구현
+- 엑셀 파일 등록 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지도 보기 
+- PM 위치 보기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 맵 보기 기능 구현
+- PM 위치 표시 기능 구현
+- 킥보드 와 자전거 구별 하여 표시하기 기능</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 포인트 제공 목록 보기 구현
+- 포인트 사용 목록 보기 구현 ( 상품 구매 목록 )
+- 검색 기능 구현
+- 필터 기능 구현 ( 필터 요소 :  사용자, 제품, 일자 )</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 브랜드는 예정입니다. 
+- 상품 목록도 예정입니다. </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 상품 목록 보기 기능 구현
+- 상품 상세 보기 기능 구현
+- 상품 등록 기능 구현</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 신고, 처리, 미처리 건수를 Pie Chart 로 보기
+- 월별 신고등록과 접수를 바 차트로 보기 
+- 총 신고 건 수 와 담당 부서에 전달하는 건 수 보기</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1606,7 +1733,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1793,9 +1920,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1865,6 +1989,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1877,18 +2013,6 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1906,6 +2030,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2298,7 +2428,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="A1:M27"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -2429,55 +2559,55 @@
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
     </row>
     <row r="11" spans="1:13" ht="17.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="1:13" ht="17.25">
       <c r="A12" s="7"/>
@@ -2495,66 +2625,66 @@
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" ht="6" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" spans="1:13" ht="17.25">
       <c r="A17" s="7"/>
@@ -2572,36 +2702,36 @@
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
     </row>
     <row r="20" spans="1:13" ht="17.25">
       <c r="A20" s="7"/>
@@ -2789,70 +2919,70 @@
       <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A2" s="79" t="str">
+      <c r="A2" s="78" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A4" s="80" t="str">
+      <c r="A4" s="79" t="str">
         <f>표지!A13</f>
         <v>요구사항정의서</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1">
       <c r="A6" s="26"/>
@@ -2932,54 +3062,54 @@
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="82"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
       <c r="K13" s="36" t="s">
         <v>7</v>
       </c>
@@ -2991,69 +3121,69 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A14" s="83">
+      <c r="A14" s="82">
         <v>0.1</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="38" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -3062,13 +3192,13 @@
       <c r="A18" s="39"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
@@ -3077,88 +3207,88 @@
       <c r="A19" s="39"/>
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="37"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
@@ -3209,7 +3339,7 @@
   <dimension ref="A1:BL1048558"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -3239,77 +3369,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="89" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -3323,60 +3453,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="90" t="s">
+      <c r="J5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="90" t="s">
+      <c r="K5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90" t="s">
+      <c r="L5" s="85"/>
+      <c r="M5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="90" t="s">
+      <c r="P5" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="90" t="s">
+      <c r="Q5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90" t="s" ph="1">
+      <c r="R5" s="85"/>
+      <c r="S5" s="85" t="s" ph="1">
         <v>24</v>
       </c>
-      <c r="T5" s="90" t="s">
+      <c r="T5" s="85" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -3386,11 +3516,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -3403,16 +3533,16 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="90" ph="1"/>
-      <c r="T6" s="90"/>
+      <c r="S6" s="85" ph="1"/>
+      <c r="T6" s="85"/>
     </row>
     <row r="7" spans="1:20" ht="54" customHeight="1">
       <c r="A7" s="50">
@@ -3421,24 +3551,24 @@
       <c r="B7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="91" t="s">
-        <v>68</v>
+      <c r="C7" s="86" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="55" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J7" s="54" t="s">
         <v>35</v>
@@ -3467,7 +3597,7 @@
       </c>
       <c r="R7" s="54"/>
       <c r="S7" s="61" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="T7" s="59"/>
     </row>
@@ -3478,22 +3608,22 @@
       <c r="B8" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="60" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J8" s="54" t="s">
         <v>35</v>
@@ -3522,7 +3652,7 @@
       </c>
       <c r="R8" s="54"/>
       <c r="S8" s="61" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="T8" s="59"/>
     </row>
@@ -3533,22 +3663,22 @@
       <c r="B9" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="60" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="55" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>35</v>
@@ -3577,33 +3707,33 @@
       </c>
       <c r="R9" s="60"/>
       <c r="S9" s="61" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="T9" s="59"/>
     </row>
     <row r="10" spans="1:20" ht="54" customHeight="1">
       <c r="A10" s="50">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="93"/>
+        <v>192</v>
+      </c>
+      <c r="C10" s="88"/>
       <c r="D10" s="60" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="55" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J10" s="60" t="s">
         <v>35</v>
@@ -3632,7 +3762,7 @@
       </c>
       <c r="R10" s="54"/>
       <c r="S10" s="61" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="T10" s="59"/>
     </row>
@@ -3784,8 +3914,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -3803,6 +3931,8 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
@@ -3842,8 +3972,8 @@
   </sheetPr>
   <dimension ref="A1:BL1048572"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -3873,77 +4003,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="89" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="1:64" ht="18" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -3957,60 +4087,60 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:64" ht="27.75" customHeight="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="90" t="s">
+      <c r="J5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="90" t="s">
+      <c r="K5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90" t="s">
+      <c r="L5" s="85"/>
+      <c r="M5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="90" t="s">
+      <c r="P5" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="90" t="s">
+      <c r="Q5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90" t="s">
+      <c r="R5" s="85"/>
+      <c r="S5" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="90" t="s">
+      <c r="T5" s="85" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="42.75" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="48" t="s">
         <v>26</v>
       </c>
@@ -4020,11 +4150,11 @@
       <c r="E6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
@@ -4037,44 +4167,44 @@
       <c r="N6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-    </row>
-    <row r="7" spans="1:64" s="68" customFormat="1" ht="54">
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+    </row>
+    <row r="7" spans="1:64" s="67" customFormat="1" ht="54">
       <c r="A7" s="50">
         <v>1</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>162</v>
+      <c r="D7" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>195</v>
       </c>
       <c r="J7" s="57" t="s">
         <v>35</v>
@@ -4103,9 +4233,9 @@
       </c>
       <c r="R7" s="57"/>
       <c r="S7" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="T7" s="67"/>
+        <v>137</v>
+      </c>
+      <c r="T7" s="66"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
       <c r="W7" s="42"/>
@@ -4151,27 +4281,27 @@
       <c r="BK7" s="42"/>
       <c r="BL7" s="42"/>
     </row>
-    <row r="8" spans="1:64" s="68" customFormat="1" ht="54">
+    <row r="8" spans="1:64" s="67" customFormat="1" ht="54">
       <c r="A8" s="50">
         <v>2</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69" t="s">
-        <v>156</v>
+      <c r="C8" s="94"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68" t="s">
+        <v>198</v>
       </c>
       <c r="J8" s="57" t="s">
         <v>35</v>
@@ -4200,9 +4330,9 @@
       </c>
       <c r="R8" s="57"/>
       <c r="S8" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="T8" s="67"/>
+        <v>137</v>
+      </c>
+      <c r="T8" s="66"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
       <c r="W8" s="42"/>
@@ -4248,29 +4378,29 @@
       <c r="BK8" s="42"/>
       <c r="BL8" s="42"/>
     </row>
-    <row r="9" spans="1:64" s="68" customFormat="1" ht="54">
+    <row r="9" spans="1:64" s="67" customFormat="1" ht="69.95" customHeight="1">
       <c r="A9" s="50">
         <v>3</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>164</v>
+      <c r="C9" s="94"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>199</v>
       </c>
       <c r="J9" s="57" t="s">
         <v>35</v>
@@ -4299,9 +4429,9 @@
       </c>
       <c r="R9" s="57"/>
       <c r="S9" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="T9" s="67"/>
+        <v>137</v>
+      </c>
+      <c r="T9" s="66"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
       <c r="W9" s="42"/>
@@ -4354,24 +4484,24 @@
       <c r="B10" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="94" t="s">
-        <v>114</v>
+      <c r="C10" s="94"/>
+      <c r="D10" s="93" t="s">
+        <v>102</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>225</v>
+        <v>123</v>
+      </c>
+      <c r="H10" s="99" t="s">
+        <v>200</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>35</v>
@@ -4400,7 +4530,7 @@
       </c>
       <c r="R10" s="51"/>
       <c r="S10" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T10" s="58"/>
     </row>
@@ -4411,22 +4541,20 @@
       <c r="B11" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="57" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>225</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H11" s="100"/>
       <c r="I11" s="53" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="J11" s="51" t="s">
         <v>35</v>
@@ -4445,41 +4573,43 @@
         <v>38</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="P11" s="51" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="51" t="s">
         <v>40</v>
       </c>
       <c r="R11" s="51"/>
       <c r="S11" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T11" s="58"/>
     </row>
-    <row r="12" spans="1:64" ht="54">
+    <row r="12" spans="1:64" ht="69.95" customHeight="1">
       <c r="A12" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="57" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="52"/>
+        <v>202</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>203</v>
+      </c>
       <c r="I12" s="53" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="J12" s="51" t="s">
         <v>35</v>
@@ -4498,41 +4628,41 @@
         <v>38</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="P12" s="51" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="51" t="s">
         <v>40</v>
       </c>
       <c r="R12" s="51"/>
       <c r="S12" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T12" s="58"/>
     </row>
     <row r="13" spans="1:64" ht="54">
       <c r="A13" s="50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="57" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="52"/>
+        <v>125</v>
+      </c>
+      <c r="H13" s="53"/>
       <c r="I13" s="53" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="J13" s="51" t="s">
         <v>35</v>
@@ -4551,41 +4681,41 @@
         <v>38</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="P13" s="51" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="51" t="s">
         <v>40</v>
       </c>
       <c r="R13" s="51"/>
       <c r="S13" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T13" s="58"/>
     </row>
     <row r="14" spans="1:64" ht="54">
       <c r="A14" s="50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="57" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" s="62"/>
+        <v>207</v>
+      </c>
+      <c r="H14" s="64"/>
       <c r="I14" s="53" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="J14" s="57" t="s">
         <v>35</v>
@@ -4614,31 +4744,33 @@
       </c>
       <c r="R14" s="57"/>
       <c r="S14" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T14" s="58"/>
     </row>
     <row r="15" spans="1:64" ht="54">
       <c r="A15" s="50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="57" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="62"/>
+        <v>209</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>214</v>
+      </c>
       <c r="I15" s="53" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="J15" s="57" t="s">
         <v>35</v>
@@ -4657,41 +4789,43 @@
         <v>38</v>
       </c>
       <c r="O15" s="57" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="P15" s="57" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R15" s="57"/>
       <c r="S15" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T15" s="58"/>
     </row>
     <row r="16" spans="1:64" ht="54">
       <c r="A16" s="50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="57" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="52"/>
+        <v>127</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>213</v>
+      </c>
       <c r="I16" s="53" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="J16" s="57" t="s">
         <v>35</v>
@@ -4720,33 +4854,35 @@
       </c>
       <c r="R16" s="57"/>
       <c r="S16" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T16" s="58"/>
     </row>
-    <row r="17" spans="1:20" ht="54">
+    <row r="17" spans="1:20" ht="69.95" customHeight="1">
       <c r="A17" s="50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="94" t="s">
-        <v>79</v>
+      <c r="C17" s="94"/>
+      <c r="D17" s="93" t="s">
+        <v>78</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="52"/>
+        <v>212</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>215</v>
+      </c>
       <c r="I17" s="53" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="J17" s="57" t="s">
         <v>35</v>
@@ -4775,31 +4911,33 @@
       </c>
       <c r="R17" s="57"/>
       <c r="S17" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T17" s="58"/>
     </row>
-    <row r="18" spans="1:20" ht="54">
+    <row r="18" spans="1:20" ht="69.95" customHeight="1">
       <c r="A18" s="50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="57" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="52"/>
+        <v>128</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>216</v>
+      </c>
       <c r="I18" s="53" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="J18" s="57" t="s">
         <v>35</v>
@@ -4828,33 +4966,35 @@
       </c>
       <c r="R18" s="57"/>
       <c r="S18" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T18" s="58"/>
     </row>
     <row r="19" spans="1:20" ht="54">
       <c r="A19" s="50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="94" t="s">
-        <v>123</v>
+      <c r="C19" s="94"/>
+      <c r="D19" s="93" t="s">
+        <v>109</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="52"/>
+        <v>129</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>220</v>
+      </c>
       <c r="I19" s="53" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="J19" s="57" t="s">
         <v>35</v>
@@ -4883,31 +5023,31 @@
       </c>
       <c r="R19" s="57"/>
       <c r="S19" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T19" s="58"/>
     </row>
     <row r="20" spans="1:20" ht="54">
       <c r="A20" s="50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="57" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" s="52"/>
+        <v>221</v>
+      </c>
+      <c r="H20" s="53"/>
       <c r="I20" s="53" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="J20" s="57" t="s">
         <v>35</v>
@@ -4936,52 +5076,52 @@
       </c>
       <c r="R20" s="57"/>
       <c r="S20" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T20" s="58"/>
     </row>
     <row r="21" spans="1:20" ht="54">
       <c r="A21" s="50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="57" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" s="52"/>
+        <v>223</v>
+      </c>
+      <c r="H21" s="53"/>
       <c r="I21" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="J21" s="71" t="s">
         <v>35</v>
       </c>
       <c r="K21" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="72" t="s">
+      <c r="L21" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="72" t="str">
+      <c r="M21" s="71" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N21" s="72" t="s">
+      <c r="N21" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="72" t="s">
+      <c r="O21" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="72" t="s">
+      <c r="P21" s="71" t="s">
         <v>39</v>
       </c>
       <c r="Q21" s="57" t="s">
@@ -4989,31 +5129,31 @@
       </c>
       <c r="R21" s="57"/>
       <c r="S21" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T21" s="58"/>
     </row>
     <row r="22" spans="1:20" ht="54">
       <c r="A22" s="50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
+        <v>138</v>
+      </c>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="57" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="52"/>
+        <v>227</v>
+      </c>
+      <c r="H22" s="53"/>
       <c r="I22" s="53" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="J22" s="57" t="s">
         <v>35</v>
@@ -5042,33 +5182,31 @@
       </c>
       <c r="R22" s="57"/>
       <c r="S22" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T22" s="58"/>
     </row>
     <row r="23" spans="1:20" ht="54">
       <c r="A23" s="50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="95"/>
+        <v>139</v>
+      </c>
+      <c r="C23" s="94"/>
       <c r="D23" s="57" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65" t="s">
-        <v>168</v>
+        <v>115</v>
+      </c>
+      <c r="F23" s="57"/>
+      <c r="G23" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64" t="s">
+        <v>225</v>
       </c>
       <c r="J23" s="57" t="s">
         <v>35</v>
@@ -5097,33 +5235,31 @@
       </c>
       <c r="R23" s="57"/>
       <c r="S23" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T23" s="58"/>
     </row>
     <row r="24" spans="1:20" ht="54">
       <c r="A24" s="50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="96"/>
+        <v>140</v>
+      </c>
+      <c r="C24" s="95"/>
       <c r="D24" s="57" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65" t="s">
-        <v>168</v>
+        <v>115</v>
+      </c>
+      <c r="F24" s="57"/>
+      <c r="G24" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64" t="s">
+        <v>226</v>
       </c>
       <c r="J24" s="57" t="s">
         <v>35</v>
@@ -5152,7 +5288,7 @@
       </c>
       <c r="R24" s="57"/>
       <c r="S24" s="57" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="T24" s="58"/>
     </row>
@@ -5303,7 +5439,7 @@
       <c r="L1048572" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -5327,6 +5463,7 @@
     <mergeCell ref="D10:D16"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
@@ -5366,8 +5503,8 @@
   </sheetPr>
   <dimension ref="A1:BL1048569"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.5"/>
@@ -5397,77 +5534,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="89" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
+      <c r="A3" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -5481,293 +5618,293 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="90" t="s">
+      <c r="J5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="90" t="s">
+      <c r="K5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90" t="s">
+      <c r="L5" s="85"/>
+      <c r="M5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="90" t="s">
+      <c r="P5" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="90" t="s">
+      <c r="Q5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90" t="s">
+      <c r="R5" s="85"/>
+      <c r="S5" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="90" t="s">
+      <c r="T5" s="85" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
       <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="49" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
     </row>
     <row r="7" spans="1:20" ht="54">
       <c r="A7" s="50">
         <v>1</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
-        <v>221</v>
+        <v>68</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
+        <v>174</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="J7" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="63" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="64" t="str">
+      <c r="M7" s="63" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N7" s="64" t="s">
+      <c r="N7" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="P7" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="64" t="s">
+      <c r="O7" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64" t="s">
+      <c r="R7" s="63"/>
+      <c r="S7" s="63" t="s">
         <v>52</v>
       </c>
       <c r="T7" s="58"/>
     </row>
     <row r="8" spans="1:20" ht="54">
       <c r="A8" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71" t="s">
-        <v>208</v>
+        <v>69</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70" t="s">
+        <v>167</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="J8" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="70" t="s">
         <v>35</v>
       </c>
       <c r="K8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="71" t="s">
+      <c r="L8" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="71" t="str">
+      <c r="M8" s="70" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N8" s="71" t="s">
+      <c r="N8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="P8" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q8" s="71" t="s">
+      <c r="O8" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71" t="s">
+      <c r="R8" s="70"/>
+      <c r="S8" s="70" t="s">
         <v>52</v>
       </c>
       <c r="T8" s="58"/>
     </row>
     <row r="9" spans="1:20" ht="54">
       <c r="A9" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64" t="s">
-        <v>209</v>
+        <v>70</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63" t="s">
+        <v>168</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="J9" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="63" t="s">
         <v>35</v>
       </c>
       <c r="K9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="64" t="s">
+      <c r="L9" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="64" t="str">
+      <c r="M9" s="63" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N9" s="64" t="s">
+      <c r="N9" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="P9" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q9" s="64" t="s">
+      <c r="O9" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64" t="s">
+      <c r="R9" s="63"/>
+      <c r="S9" s="63" t="s">
         <v>52</v>
       </c>
       <c r="T9" s="58"/>
     </row>
-    <row r="10" spans="1:20" ht="150" customHeight="1">
+    <row r="10" spans="1:20" ht="140.1" customHeight="1">
       <c r="A10" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>80</v>
-      </c>
       <c r="F10" s="57" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="J10" s="57" t="s">
         <v>35</v>
@@ -5783,7 +5920,7 @@
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
       <c r="N10" s="57" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="O10" s="57" t="s">
         <v>39</v>
@@ -5800,31 +5937,29 @@
       </c>
       <c r="T10" s="58"/>
     </row>
-    <row r="11" spans="1:20" ht="105" customHeight="1">
+    <row r="11" spans="1:20" ht="120" customHeight="1">
       <c r="A11" s="50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="100"/>
+        <v>72</v>
+      </c>
+      <c r="C11" s="101"/>
       <c r="D11" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>81</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="E11" s="57"/>
       <c r="F11" s="57" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="J11" s="57" t="s">
         <v>35</v>
@@ -5852,146 +5987,146 @@
         <v>40</v>
       </c>
       <c r="R11" s="57"/>
-      <c r="S11" s="64" t="s">
+      <c r="S11" s="63" t="s">
         <v>52</v>
       </c>
       <c r="T11" s="58"/>
     </row>
-    <row r="12" spans="1:20" ht="54">
+    <row r="12" spans="1:20" ht="69.95" customHeight="1">
       <c r="A12" s="50">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="94" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>191</v>
+        <v>73</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>157</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="H12" s="53" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="J12" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" s="63" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="72" t="str">
+      <c r="M12" s="71" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N12" s="64" t="s">
+      <c r="N12" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="P12" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q12" s="64" t="s">
+      <c r="O12" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64" t="s">
+      <c r="R12" s="63"/>
+      <c r="S12" s="63" t="s">
         <v>52</v>
       </c>
       <c r="T12" s="58"/>
     </row>
     <row r="13" spans="1:20" ht="54">
       <c r="A13" s="50">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="64" t="s">
-        <v>192</v>
+        <v>74</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="63" t="s">
+        <v>244</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="J13" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="63" t="s">
         <v>35</v>
       </c>
       <c r="K13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="64" t="s">
+      <c r="L13" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="72" t="str">
+      <c r="M13" s="71" t="str">
         <f>표지!A10</f>
         <v>지역 균형 발전 ICT/SW 융합기술 개발 (SOS랩 운영 및 SW 서비스 개발 사업)</v>
       </c>
-      <c r="N13" s="64" t="s">
+      <c r="N13" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="64" t="s">
+      <c r="O13" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="64" t="s">
+      <c r="P13" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="64" t="s">
+      <c r="Q13" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64" t="s">
+      <c r="R13" s="63"/>
+      <c r="S13" s="63" t="s">
         <v>52</v>
       </c>
       <c r="T13" s="58"/>
     </row>
     <row r="14" spans="1:20" ht="54" customHeight="1">
       <c r="A14" s="50">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="100" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="C14" s="101" t="s">
+        <v>80</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="53" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c r="J14" s="57" t="s">
         <v>35</v>
@@ -6019,34 +6154,34 @@
         <v>40</v>
       </c>
       <c r="R14" s="57"/>
-      <c r="S14" s="64" t="s">
-        <v>113</v>
+      <c r="S14" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="T14" s="58"/>
     </row>
-    <row r="15" spans="1:20" ht="60" customHeight="1">
+    <row r="15" spans="1:20" ht="90" customHeight="1">
       <c r="A15" s="50">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="100"/>
+        <v>76</v>
+      </c>
+      <c r="C15" s="101"/>
       <c r="D15" s="57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="57"/>
       <c r="F15" s="57" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="J15" s="57" t="s">
         <v>35</v>
@@ -6074,36 +6209,38 @@
         <v>40</v>
       </c>
       <c r="R15" s="57"/>
-      <c r="S15" s="64" t="s">
-        <v>113</v>
+      <c r="S15" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="T15" s="58"/>
     </row>
     <row r="16" spans="1:20" ht="54" customHeight="1">
       <c r="A16" s="50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>200</v>
+        <v>77</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>162</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="H16" s="53"/>
+        <v>252</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>254</v>
+      </c>
       <c r="I16" s="53" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="J16" s="57" t="s">
         <v>35</v>
@@ -6122,45 +6259,45 @@
         <v>38</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="P16" s="57" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R16" s="57"/>
-      <c r="S16" s="64" t="s">
-        <v>113</v>
+      <c r="S16" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="T16" s="58"/>
     </row>
     <row r="17" spans="1:20" ht="54" customHeight="1">
       <c r="A17" s="50">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="100"/>
+        <v>154</v>
+      </c>
+      <c r="C17" s="101"/>
       <c r="D17" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="F17" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="65" t="s">
-        <v>104</v>
+      <c r="H17" s="64" t="s">
+        <v>95</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="J17" s="57" t="s">
         <v>35</v>
@@ -6179,43 +6316,43 @@
         <v>38</v>
       </c>
       <c r="O17" s="57" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="P17" s="57" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R17" s="57"/>
-      <c r="S17" s="64" t="s">
+      <c r="S17" s="63" t="s">
         <v>52</v>
       </c>
       <c r="T17" s="58"/>
     </row>
     <row r="18" spans="1:20" ht="54" customHeight="1">
       <c r="A18" s="50">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="100"/>
+        <v>171</v>
+      </c>
+      <c r="C18" s="101"/>
       <c r="D18" s="57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="65"/>
+        <v>161</v>
+      </c>
+      <c r="H18" s="64"/>
       <c r="I18" s="53" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="J18" s="57" t="s">
         <v>35</v>
@@ -6234,47 +6371,47 @@
         <v>38</v>
       </c>
       <c r="O18" s="57" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="P18" s="57" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R18" s="57"/>
-      <c r="S18" s="64" t="s">
+      <c r="S18" s="63" t="s">
         <v>52</v>
       </c>
       <c r="T18" s="58"/>
     </row>
     <row r="19" spans="1:20" ht="54" customHeight="1">
       <c r="A19" s="50">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I19" s="53" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
       <c r="J19" s="57" t="s">
         <v>35</v>
@@ -6293,96 +6430,98 @@
         <v>38</v>
       </c>
       <c r="O19" s="57" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="P19" s="57" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="57" t="s">
         <v>40</v>
       </c>
       <c r="R19" s="57"/>
-      <c r="S19" s="64" t="s">
-        <v>113</v>
+      <c r="S19" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="T19" s="58"/>
     </row>
-    <row r="20" spans="1:20" ht="54" customHeight="1">
+    <row r="20" spans="1:20" ht="69.95" customHeight="1">
       <c r="A20" s="50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>229</v>
+        <v>184</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>178</v>
       </c>
       <c r="E20" s="52"/>
-      <c r="F20" s="64" t="s">
-        <v>231</v>
+      <c r="F20" s="63" t="s">
+        <v>180</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="J20" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="J20" s="63" t="s">
         <v>35</v>
       </c>
       <c r="K20" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="64" t="s">
+      <c r="L20" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="64" t="str">
+      <c r="M20" s="63" t="str">
         <f>표지!A11</f>
         <v>불법주정차 해결을 위한 지역 참여 안전주차 인도 서비스 플랫폼</v>
       </c>
-      <c r="N20" s="64" t="s">
+      <c r="N20" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="64" t="s">
+      <c r="O20" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64" t="s">
+      <c r="R20" s="63"/>
+      <c r="S20" s="63" t="s">
         <v>52</v>
       </c>
       <c r="T20" s="58"/>
     </row>
     <row r="21" spans="1:20" ht="54" customHeight="1">
       <c r="A21" s="50">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="74"/>
+        <v>185</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="D21" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="73"/>
       <c r="F21" s="57" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="H21" s="53"/>
+        <v>183</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>260</v>
+      </c>
       <c r="I21" s="53" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="J21" s="57" t="s">
         <v>35</v>
@@ -6410,7 +6549,7 @@
         <v>40</v>
       </c>
       <c r="R21" s="57"/>
-      <c r="S21" s="64" t="s">
+      <c r="S21" s="63" t="s">
         <v>52</v>
       </c>
       <c r="T21" s="58"/>
